--- a/DTW/data/skip10.xlsx
+++ b/DTW/data/skip10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\INC_BEV_FastMOT\DTW\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F8E91-6B68-4030-B01D-348EFF656B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F51E9-4C4B-46E7-92D3-8D178845F0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="680" windowWidth="25470" windowHeight="15460" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="720" yWindow="6280" windowWidth="11480" windowHeight="15280" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="94">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,14 @@
   </si>
   <si>
     <t>ch04</t>
+  </si>
+  <si>
+    <t>5,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -999,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C513" sqref="C513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1670,8 +1678,8 @@
       <c r="C65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="3">
-        <v>15</v>
+      <c r="D65" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -1700,9 +1708,7 @@
       <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="4">
-        <v>2</v>
-      </c>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
@@ -1802,8 +1808,8 @@
       <c r="C78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="4">
-        <v>9</v>
+      <c r="D78" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -1822,9 +1828,7 @@
       <c r="C80" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="6">
-        <v>5</v>
-      </c>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="12">
@@ -6568,8 +6572,8 @@
       <c r="C545" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D545" s="3" t="s">
-        <v>16</v>
+      <c r="D545" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.45">
@@ -6598,7 +6602,9 @@
       <c r="C548" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D548" s="4"/>
+      <c r="D548" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="13"/>
@@ -9178,176 +9184,71 @@
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="A769:A784"/>
-    <mergeCell ref="B769:B772"/>
-    <mergeCell ref="B773:B776"/>
-    <mergeCell ref="B777:B780"/>
-    <mergeCell ref="B781:B784"/>
-    <mergeCell ref="A785:A800"/>
-    <mergeCell ref="B785:B788"/>
-    <mergeCell ref="B789:B792"/>
-    <mergeCell ref="B793:B796"/>
-    <mergeCell ref="B797:B800"/>
-    <mergeCell ref="A737:A752"/>
-    <mergeCell ref="B737:B740"/>
-    <mergeCell ref="B741:B744"/>
-    <mergeCell ref="B745:B748"/>
-    <mergeCell ref="B749:B752"/>
-    <mergeCell ref="A753:A768"/>
-    <mergeCell ref="B753:B756"/>
-    <mergeCell ref="B757:B760"/>
-    <mergeCell ref="B761:B764"/>
-    <mergeCell ref="B765:B768"/>
-    <mergeCell ref="A705:A720"/>
-    <mergeCell ref="B705:B708"/>
-    <mergeCell ref="B709:B712"/>
-    <mergeCell ref="B713:B716"/>
-    <mergeCell ref="B717:B720"/>
-    <mergeCell ref="A721:A736"/>
-    <mergeCell ref="B721:B724"/>
-    <mergeCell ref="B725:B728"/>
-    <mergeCell ref="B729:B732"/>
-    <mergeCell ref="B733:B736"/>
-    <mergeCell ref="A673:A688"/>
-    <mergeCell ref="B673:B676"/>
-    <mergeCell ref="B677:B680"/>
-    <mergeCell ref="B681:B684"/>
-    <mergeCell ref="B685:B688"/>
-    <mergeCell ref="A689:A704"/>
-    <mergeCell ref="B689:B692"/>
-    <mergeCell ref="B693:B696"/>
-    <mergeCell ref="B697:B700"/>
-    <mergeCell ref="B701:B704"/>
-    <mergeCell ref="A641:A656"/>
-    <mergeCell ref="B641:B644"/>
-    <mergeCell ref="B645:B648"/>
-    <mergeCell ref="B649:B652"/>
-    <mergeCell ref="B653:B656"/>
-    <mergeCell ref="A657:A672"/>
-    <mergeCell ref="B657:B660"/>
-    <mergeCell ref="B661:B664"/>
-    <mergeCell ref="B665:B668"/>
-    <mergeCell ref="B669:B672"/>
-    <mergeCell ref="A609:A624"/>
-    <mergeCell ref="B609:B612"/>
-    <mergeCell ref="B613:B616"/>
-    <mergeCell ref="B617:B620"/>
-    <mergeCell ref="B621:B624"/>
-    <mergeCell ref="A625:A640"/>
-    <mergeCell ref="B625:B628"/>
-    <mergeCell ref="B629:B632"/>
-    <mergeCell ref="B633:B636"/>
-    <mergeCell ref="B637:B640"/>
-    <mergeCell ref="A577:A592"/>
-    <mergeCell ref="B577:B580"/>
-    <mergeCell ref="B581:B584"/>
-    <mergeCell ref="B585:B588"/>
-    <mergeCell ref="B589:B592"/>
-    <mergeCell ref="A593:A608"/>
-    <mergeCell ref="B593:B596"/>
-    <mergeCell ref="B597:B600"/>
-    <mergeCell ref="B601:B604"/>
-    <mergeCell ref="B605:B608"/>
-    <mergeCell ref="A545:A560"/>
-    <mergeCell ref="B545:B548"/>
-    <mergeCell ref="B549:B552"/>
-    <mergeCell ref="B553:B556"/>
-    <mergeCell ref="B557:B560"/>
-    <mergeCell ref="A561:A576"/>
-    <mergeCell ref="B561:B564"/>
-    <mergeCell ref="B565:B568"/>
-    <mergeCell ref="B569:B572"/>
-    <mergeCell ref="B573:B576"/>
-    <mergeCell ref="A513:A528"/>
-    <mergeCell ref="B513:B516"/>
-    <mergeCell ref="B517:B520"/>
-    <mergeCell ref="B521:B524"/>
-    <mergeCell ref="B525:B528"/>
-    <mergeCell ref="A529:A544"/>
-    <mergeCell ref="B529:B532"/>
-    <mergeCell ref="B533:B536"/>
-    <mergeCell ref="B537:B540"/>
-    <mergeCell ref="B541:B544"/>
-    <mergeCell ref="A481:A496"/>
-    <mergeCell ref="B481:B484"/>
-    <mergeCell ref="B485:B488"/>
-    <mergeCell ref="B489:B492"/>
-    <mergeCell ref="B493:B496"/>
-    <mergeCell ref="A497:A512"/>
-    <mergeCell ref="B497:B500"/>
-    <mergeCell ref="B501:B504"/>
-    <mergeCell ref="B505:B508"/>
-    <mergeCell ref="B509:B512"/>
-    <mergeCell ref="A449:A464"/>
-    <mergeCell ref="B449:B452"/>
-    <mergeCell ref="B453:B456"/>
-    <mergeCell ref="B457:B460"/>
-    <mergeCell ref="B461:B464"/>
-    <mergeCell ref="A465:A480"/>
-    <mergeCell ref="B465:B468"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="B473:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="A417:A432"/>
-    <mergeCell ref="B417:B420"/>
-    <mergeCell ref="B421:B424"/>
-    <mergeCell ref="B425:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="A433:A448"/>
-    <mergeCell ref="B433:B436"/>
-    <mergeCell ref="B437:B440"/>
-    <mergeCell ref="B441:B444"/>
-    <mergeCell ref="B445:B448"/>
-    <mergeCell ref="A385:A400"/>
-    <mergeCell ref="B385:B388"/>
-    <mergeCell ref="B389:B392"/>
-    <mergeCell ref="B393:B396"/>
-    <mergeCell ref="B397:B400"/>
-    <mergeCell ref="A401:A416"/>
-    <mergeCell ref="B401:B404"/>
-    <mergeCell ref="B405:B408"/>
-    <mergeCell ref="B409:B412"/>
-    <mergeCell ref="B413:B416"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A81:A96"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A97:A112"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A369:A384"/>
+    <mergeCell ref="B369:B372"/>
+    <mergeCell ref="B373:B376"/>
+    <mergeCell ref="B377:B380"/>
+    <mergeCell ref="B381:B384"/>
+    <mergeCell ref="A337:A352"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B341:B344"/>
+    <mergeCell ref="B345:B348"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="A353:A368"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B357:B360"/>
+    <mergeCell ref="B361:B364"/>
+    <mergeCell ref="B365:B368"/>
+    <mergeCell ref="A305:A320"/>
+    <mergeCell ref="B305:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="A321:A336"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="A273:A288"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="A289:A304"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="B293:B296"/>
+    <mergeCell ref="B297:B300"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="A241:A256"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="A257:A272"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="B261:B264"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="B269:B272"/>
+    <mergeCell ref="A209:A224"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A240"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A177:A192"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A193:A208"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="B205:B208"/>
     <mergeCell ref="A129:A144"/>
     <mergeCell ref="A145:A160"/>
     <mergeCell ref="B145:B148"/>
@@ -9359,71 +9260,176 @@
     <mergeCell ref="B165:B168"/>
     <mergeCell ref="B169:B172"/>
     <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A177:A192"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="A193:A208"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A209:A224"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A240"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="A241:A256"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="A257:A272"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="B261:B264"/>
-    <mergeCell ref="B265:B268"/>
-    <mergeCell ref="B269:B272"/>
-    <mergeCell ref="A273:A288"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B280"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="A289:A304"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="B293:B296"/>
-    <mergeCell ref="B297:B300"/>
-    <mergeCell ref="B301:B304"/>
-    <mergeCell ref="A305:A320"/>
-    <mergeCell ref="B305:B308"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="B317:B320"/>
-    <mergeCell ref="A321:A336"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="A337:A352"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B341:B344"/>
-    <mergeCell ref="B345:B348"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="A353:A368"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B357:B360"/>
-    <mergeCell ref="B361:B364"/>
-    <mergeCell ref="B365:B368"/>
-    <mergeCell ref="A369:A384"/>
-    <mergeCell ref="B369:B372"/>
-    <mergeCell ref="B373:B376"/>
-    <mergeCell ref="B377:B380"/>
-    <mergeCell ref="B381:B384"/>
+    <mergeCell ref="A97:A112"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A81:A96"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A385:A400"/>
+    <mergeCell ref="B385:B388"/>
+    <mergeCell ref="B389:B392"/>
+    <mergeCell ref="B393:B396"/>
+    <mergeCell ref="B397:B400"/>
+    <mergeCell ref="A401:A416"/>
+    <mergeCell ref="B401:B404"/>
+    <mergeCell ref="B405:B408"/>
+    <mergeCell ref="B409:B412"/>
+    <mergeCell ref="B413:B416"/>
+    <mergeCell ref="A417:A432"/>
+    <mergeCell ref="B417:B420"/>
+    <mergeCell ref="B421:B424"/>
+    <mergeCell ref="B425:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="A433:A448"/>
+    <mergeCell ref="B433:B436"/>
+    <mergeCell ref="B437:B440"/>
+    <mergeCell ref="B441:B444"/>
+    <mergeCell ref="B445:B448"/>
+    <mergeCell ref="A449:A464"/>
+    <mergeCell ref="B449:B452"/>
+    <mergeCell ref="B453:B456"/>
+    <mergeCell ref="B457:B460"/>
+    <mergeCell ref="B461:B464"/>
+    <mergeCell ref="A465:A480"/>
+    <mergeCell ref="B465:B468"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="B473:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="A481:A496"/>
+    <mergeCell ref="B481:B484"/>
+    <mergeCell ref="B485:B488"/>
+    <mergeCell ref="B489:B492"/>
+    <mergeCell ref="B493:B496"/>
+    <mergeCell ref="A497:A512"/>
+    <mergeCell ref="B497:B500"/>
+    <mergeCell ref="B501:B504"/>
+    <mergeCell ref="B505:B508"/>
+    <mergeCell ref="B509:B512"/>
+    <mergeCell ref="A513:A528"/>
+    <mergeCell ref="B513:B516"/>
+    <mergeCell ref="B517:B520"/>
+    <mergeCell ref="B521:B524"/>
+    <mergeCell ref="B525:B528"/>
+    <mergeCell ref="A529:A544"/>
+    <mergeCell ref="B529:B532"/>
+    <mergeCell ref="B533:B536"/>
+    <mergeCell ref="B537:B540"/>
+    <mergeCell ref="B541:B544"/>
+    <mergeCell ref="A545:A560"/>
+    <mergeCell ref="B545:B548"/>
+    <mergeCell ref="B549:B552"/>
+    <mergeCell ref="B553:B556"/>
+    <mergeCell ref="B557:B560"/>
+    <mergeCell ref="A561:A576"/>
+    <mergeCell ref="B561:B564"/>
+    <mergeCell ref="B565:B568"/>
+    <mergeCell ref="B569:B572"/>
+    <mergeCell ref="B573:B576"/>
+    <mergeCell ref="A577:A592"/>
+    <mergeCell ref="B577:B580"/>
+    <mergeCell ref="B581:B584"/>
+    <mergeCell ref="B585:B588"/>
+    <mergeCell ref="B589:B592"/>
+    <mergeCell ref="A593:A608"/>
+    <mergeCell ref="B593:B596"/>
+    <mergeCell ref="B597:B600"/>
+    <mergeCell ref="B601:B604"/>
+    <mergeCell ref="B605:B608"/>
+    <mergeCell ref="A609:A624"/>
+    <mergeCell ref="B609:B612"/>
+    <mergeCell ref="B613:B616"/>
+    <mergeCell ref="B617:B620"/>
+    <mergeCell ref="B621:B624"/>
+    <mergeCell ref="A625:A640"/>
+    <mergeCell ref="B625:B628"/>
+    <mergeCell ref="B629:B632"/>
+    <mergeCell ref="B633:B636"/>
+    <mergeCell ref="B637:B640"/>
+    <mergeCell ref="A641:A656"/>
+    <mergeCell ref="B641:B644"/>
+    <mergeCell ref="B645:B648"/>
+    <mergeCell ref="B649:B652"/>
+    <mergeCell ref="B653:B656"/>
+    <mergeCell ref="A657:A672"/>
+    <mergeCell ref="B657:B660"/>
+    <mergeCell ref="B661:B664"/>
+    <mergeCell ref="B665:B668"/>
+    <mergeCell ref="B669:B672"/>
+    <mergeCell ref="A673:A688"/>
+    <mergeCell ref="B673:B676"/>
+    <mergeCell ref="B677:B680"/>
+    <mergeCell ref="B681:B684"/>
+    <mergeCell ref="B685:B688"/>
+    <mergeCell ref="A689:A704"/>
+    <mergeCell ref="B689:B692"/>
+    <mergeCell ref="B693:B696"/>
+    <mergeCell ref="B697:B700"/>
+    <mergeCell ref="B701:B704"/>
+    <mergeCell ref="A705:A720"/>
+    <mergeCell ref="B705:B708"/>
+    <mergeCell ref="B709:B712"/>
+    <mergeCell ref="B713:B716"/>
+    <mergeCell ref="B717:B720"/>
+    <mergeCell ref="A721:A736"/>
+    <mergeCell ref="B721:B724"/>
+    <mergeCell ref="B725:B728"/>
+    <mergeCell ref="B729:B732"/>
+    <mergeCell ref="B733:B736"/>
+    <mergeCell ref="A737:A752"/>
+    <mergeCell ref="B737:B740"/>
+    <mergeCell ref="B741:B744"/>
+    <mergeCell ref="B745:B748"/>
+    <mergeCell ref="B749:B752"/>
+    <mergeCell ref="A753:A768"/>
+    <mergeCell ref="B753:B756"/>
+    <mergeCell ref="B757:B760"/>
+    <mergeCell ref="B761:B764"/>
+    <mergeCell ref="B765:B768"/>
+    <mergeCell ref="A769:A784"/>
+    <mergeCell ref="B769:B772"/>
+    <mergeCell ref="B773:B776"/>
+    <mergeCell ref="B777:B780"/>
+    <mergeCell ref="B781:B784"/>
+    <mergeCell ref="A785:A800"/>
+    <mergeCell ref="B785:B788"/>
+    <mergeCell ref="B789:B792"/>
+    <mergeCell ref="B793:B796"/>
+    <mergeCell ref="B797:B800"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DTW/data/skip10.xlsx
+++ b/DTW/data/skip10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\INC_BEV_FastMOT\DTW\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jji94\Documents\Github\INC_BEV_FastMOT\DTW\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F51E9-4C4B-46E7-92D3-8D178845F0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9E1072-C4C9-4114-8E5B-D7CEC2328791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="6280" windowWidth="11480" windowHeight="15280" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="99">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,5,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,5,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,5,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,16 +363,10 @@
     <t>정익</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
     <t>민재</t>
   </si>
   <si>
     <t>선우</t>
-  </si>
-  <si>
-    <t>3,4</t>
   </si>
   <si>
     <t>Delete</t>
@@ -400,6 +386,42 @@
   </si>
   <si>
     <t>2,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,7,8,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,16 +1029,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C513" sqref="C513"/>
+    <sheetView tabSelected="1" topLeftCell="A772" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D796" sqref="D796"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12">
         <v>1</v>
       </c>
@@ -1030,7 +1052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
@@ -1040,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
@@ -1050,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
@@ -1058,7 +1080,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="18" t="s">
         <v>4</v>
@@ -1070,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
@@ -1080,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
@@ -1090,7 +1112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
@@ -1098,7 +1120,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="18" t="s">
         <v>5</v>
@@ -1106,31 +1128,31 @@
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
@@ -1138,7 +1160,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="18" t="s">
         <v>6</v>
@@ -1150,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="1" t="s">
@@ -1160,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="16"/>
       <c r="C15" s="1" t="s">
@@ -1170,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="5" t="s">
@@ -1180,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="1" t="s">
@@ -1204,7 +1226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1214,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="17"/>
       <c r="C20" s="1" t="s">
@@ -1222,7 +1244,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="18" t="s">
         <v>4</v>
@@ -1234,7 +1256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
@@ -1244,7 +1266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="16"/>
       <c r="C23" s="1" t="s">
@@ -1254,7 +1276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="17"/>
       <c r="C24" s="1" t="s">
@@ -1262,7 +1284,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="18" t="s">
         <v>5</v>
@@ -1271,30 +1293,30 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D26" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D27" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="17"/>
       <c r="C28" s="1" t="s">
@@ -1302,7 +1324,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>6</v>
@@ -1314,7 +1336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="16"/>
       <c r="C30" s="1" t="s">
@@ -1324,7 +1346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="16"/>
       <c r="C31" s="1" t="s">
@@ -1334,7 +1356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="19"/>
       <c r="C32" s="5" t="s">
@@ -1342,7 +1364,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>3</v>
       </c>
@@ -1356,7 +1378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="16"/>
       <c r="C34" s="1" t="s">
@@ -1366,7 +1388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="16"/>
       <c r="C35" s="1" t="s">
@@ -1376,7 +1398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="17"/>
       <c r="C36" s="1" t="s">
@@ -1384,7 +1406,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="18" t="s">
         <v>4</v>
@@ -1396,7 +1418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="16"/>
       <c r="C38" s="1" t="s">
@@ -1406,7 +1428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="16"/>
       <c r="C39" s="1" t="s">
@@ -1416,7 +1438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="17"/>
       <c r="C40" s="1" t="s">
@@ -1424,7 +1446,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="18" t="s">
         <v>5</v>
@@ -1433,30 +1455,30 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="16"/>
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="16"/>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="17"/>
       <c r="C44" s="1" t="s">
@@ -1464,7 +1486,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="18" t="s">
         <v>6</v>
@@ -1476,7 +1498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="16"/>
       <c r="C46" s="1" t="s">
@@ -1486,7 +1508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="16"/>
       <c r="C47" s="1" t="s">
@@ -1496,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="19"/>
       <c r="C48" s="5" t="s">
@@ -1504,7 +1526,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>4</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="16"/>
       <c r="C50" s="1" t="s">
@@ -1528,17 +1550,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="16"/>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="17"/>
       <c r="C52" s="1" t="s">
@@ -1546,7 +1568,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="18" t="s">
         <v>4</v>
@@ -1558,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="16"/>
       <c r="C54" s="1" t="s">
@@ -1568,17 +1590,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="16"/>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="17"/>
       <c r="C56" s="1" t="s">
@@ -1588,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="18" t="s">
         <v>5</v>
@@ -1596,31 +1618,31 @@
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="16"/>
       <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="16"/>
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="17"/>
       <c r="C60" s="1" t="s">
@@ -1628,7 +1650,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="18" t="s">
         <v>6</v>
@@ -1640,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="16"/>
       <c r="C62" s="1" t="s">
@@ -1650,7 +1672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="16"/>
       <c r="C63" s="1" t="s">
@@ -1660,7 +1682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
       <c r="B64" s="19"/>
       <c r="C64" s="5" t="s">
@@ -1668,7 +1690,7 @@
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>5</v>
       </c>
@@ -1679,30 +1701,30 @@
         <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="16"/>
       <c r="C66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="16"/>
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="17"/>
       <c r="C68" s="1" t="s">
@@ -1710,7 +1732,7 @@
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="18" t="s">
         <v>4</v>
@@ -1722,17 +1744,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="16"/>
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="16"/>
       <c r="C71" s="1" t="s">
@@ -1742,7 +1764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="17"/>
       <c r="C72" s="1" t="s">
@@ -1750,7 +1772,7 @@
       </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="18" t="s">
         <v>5</v>
@@ -1758,31 +1780,31 @@
       <c r="C73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D73" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="16"/>
       <c r="C74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="16"/>
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D75" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
       <c r="B76" s="17"/>
       <c r="C76" s="1" t="s">
@@ -1790,7 +1812,7 @@
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="18" t="s">
         <v>6</v>
@@ -1799,20 +1821,20 @@
         <v>0</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="16"/>
       <c r="C78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="16"/>
       <c r="C79" s="1" t="s">
@@ -1822,7 +1844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="19"/>
       <c r="C80" s="5" t="s">
@@ -1830,7 +1852,7 @@
       </c>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>6</v>
       </c>
@@ -1844,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="16"/>
       <c r="C82" s="1" t="s">
@@ -1854,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="16"/>
       <c r="C83" s="1" t="s">
@@ -1864,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="17"/>
       <c r="C84" s="1" t="s">
@@ -1872,7 +1894,7 @@
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="18" t="s">
         <v>4</v>
@@ -1884,27 +1906,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="16"/>
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="16"/>
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="17"/>
       <c r="C88" s="1" t="s">
@@ -1912,7 +1934,7 @@
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="18" t="s">
         <v>5</v>
@@ -1921,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="16"/>
       <c r="C90" s="1" t="s">
@@ -1934,17 +1956,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="16"/>
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D91" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="17"/>
       <c r="C92" s="1" t="s">
@@ -1952,7 +1974,7 @@
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="18" t="s">
         <v>6</v>
@@ -1964,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="16"/>
       <c r="C94" s="1" t="s">
@@ -1974,7 +1996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="16"/>
       <c r="C95" s="1" t="s">
@@ -1984,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
       <c r="B96" s="19"/>
       <c r="C96" s="5" t="s">
@@ -1994,7 +2016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>7</v>
       </c>
@@ -2008,17 +2030,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="16"/>
       <c r="C98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="16"/>
       <c r="C99" s="1" t="s">
@@ -2028,7 +2050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="17"/>
       <c r="C100" s="1" t="s">
@@ -2036,7 +2058,7 @@
       </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="18" t="s">
         <v>4</v>
@@ -2048,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="16"/>
       <c r="C102" s="1" t="s">
@@ -2058,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="16"/>
       <c r="C103" s="1" t="s">
@@ -2068,7 +2090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="17"/>
       <c r="C104" s="1" t="s">
@@ -2076,7 +2098,7 @@
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="18" t="s">
         <v>5</v>
@@ -2085,20 +2107,20 @@
         <v>0</v>
       </c>
       <c r="D105" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="16"/>
       <c r="C106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="16"/>
       <c r="C107" s="1" t="s">
@@ -2108,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="17"/>
       <c r="C108" s="1" t="s">
@@ -2116,7 +2138,7 @@
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="18" t="s">
         <v>6</v>
@@ -2128,7 +2150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="16"/>
       <c r="C110" s="1" t="s">
@@ -2138,7 +2160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="16"/>
       <c r="C111" s="1" t="s">
@@ -2148,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
       <c r="B112" s="19"/>
       <c r="C112" s="5" t="s">
@@ -2156,7 +2178,7 @@
       </c>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>8</v>
       </c>
@@ -2170,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="16"/>
       <c r="C114" s="1" t="s">
@@ -2180,17 +2202,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="16"/>
       <c r="C115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="17"/>
       <c r="C116" s="1" t="s">
@@ -2198,7 +2220,7 @@
       </c>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="18" t="s">
         <v>4</v>
@@ -2210,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="16"/>
       <c r="C118" s="1" t="s">
@@ -2220,7 +2242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="16"/>
       <c r="C119" s="1" t="s">
@@ -2230,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="17"/>
       <c r="C120" s="1" t="s">
@@ -2238,7 +2260,7 @@
       </c>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="18" t="s">
         <v>5</v>
@@ -2250,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="16"/>
       <c r="C122" s="1" t="s">
@@ -2260,7 +2282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="16"/>
       <c r="C123" s="1" t="s">
@@ -2270,7 +2292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="B124" s="17"/>
       <c r="C124" s="1" t="s">
@@ -2278,7 +2300,7 @@
       </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="18" t="s">
         <v>6</v>
@@ -2290,17 +2312,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="16"/>
       <c r="C126" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="16"/>
       <c r="C127" s="1" t="s">
@@ -2310,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
       <c r="B128" s="19"/>
       <c r="C128" s="5" t="s">
@@ -2318,169 +2340,169 @@
       </c>
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>9</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="8"/>
       <c r="C130" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D130" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="8"/>
       <c r="C131" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
       <c r="B132" s="9"/>
       <c r="C132" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="D133" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
       <c r="B134" s="8"/>
       <c r="C134" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="8"/>
       <c r="C135" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D135" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="9"/>
       <c r="C136" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D137" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
       <c r="B138" s="8"/>
       <c r="C138" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
       <c r="B139" s="8"/>
       <c r="C139" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D139" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="B140" s="9"/>
       <c r="C140" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
       <c r="B141" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D141" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
       <c r="B142" s="8"/>
       <c r="C142" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D142" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
       <c r="B143" s="8"/>
       <c r="C143" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D143" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
       <c r="B144" s="11"/>
       <c r="C144" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>10</v>
       </c>
@@ -2494,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="B146" s="16"/>
       <c r="C146" s="1" t="s">
@@ -2504,17 +2526,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="16"/>
       <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
       <c r="B148" s="17"/>
       <c r="C148" s="1" t="s">
@@ -2522,7 +2544,7 @@
       </c>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="18" t="s">
         <v>4</v>
@@ -2534,7 +2556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
       <c r="B150" s="16"/>
       <c r="C150" s="1" t="s">
@@ -2544,7 +2566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" s="16"/>
       <c r="C151" s="1" t="s">
@@ -2554,7 +2576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
       <c r="B152" s="17"/>
       <c r="C152" s="1" t="s">
@@ -2562,7 +2584,7 @@
       </c>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
       <c r="B153" s="18" t="s">
         <v>5</v>
@@ -2574,27 +2596,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
       <c r="B154" s="16"/>
       <c r="C154" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
       <c r="B155" s="16"/>
       <c r="C155" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D155" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
       <c r="B156" s="17"/>
       <c r="C156" s="1" t="s">
@@ -2602,7 +2624,7 @@
       </c>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
       <c r="B157" s="18" t="s">
         <v>6</v>
@@ -2614,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
       <c r="B158" s="16"/>
       <c r="C158" s="1" t="s">
@@ -2624,7 +2646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="13"/>
       <c r="B159" s="16"/>
       <c r="C159" s="1" t="s">
@@ -2634,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
       <c r="B160" s="19"/>
       <c r="C160" s="5" t="s">
@@ -2642,7 +2664,7 @@
       </c>
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="12">
         <v>11</v>
       </c>
@@ -2656,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
       <c r="B162" s="16"/>
       <c r="C162" s="1" t="s">
@@ -2666,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
       <c r="B163" s="16"/>
       <c r="C163" s="1" t="s">
@@ -2676,7 +2698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
       <c r="B164" s="17"/>
       <c r="C164" s="1" t="s">
@@ -2684,7 +2706,7 @@
       </c>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="13"/>
       <c r="B165" s="18" t="s">
         <v>4</v>
@@ -2696,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
       <c r="B166" s="16"/>
       <c r="C166" s="1" t="s">
@@ -2706,7 +2728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="13"/>
       <c r="B167" s="16"/>
       <c r="C167" s="1" t="s">
@@ -2716,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="13"/>
       <c r="B168" s="17"/>
       <c r="C168" s="1" t="s">
@@ -2724,7 +2746,7 @@
       </c>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="13"/>
       <c r="B169" s="18" t="s">
         <v>5</v>
@@ -2733,20 +2755,20 @@
         <v>0</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
       <c r="B170" s="16"/>
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
       <c r="B171" s="16"/>
       <c r="C171" s="1" t="s">
@@ -2756,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
       <c r="B172" s="17"/>
       <c r="C172" s="1" t="s">
@@ -2764,7 +2786,7 @@
       </c>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="13"/>
       <c r="B173" s="18" t="s">
         <v>6</v>
@@ -2776,17 +2798,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
       <c r="B174" s="16"/>
       <c r="C174" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
       <c r="B175" s="16"/>
       <c r="C175" s="1" t="s">
@@ -2796,7 +2818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
       <c r="B176" s="19"/>
       <c r="C176" s="5" t="s">
@@ -2804,7 +2826,7 @@
       </c>
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <v>12</v>
       </c>
@@ -2818,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
       <c r="B178" s="16"/>
       <c r="C178" s="1" t="s">
@@ -2828,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="13"/>
       <c r="B179" s="16"/>
       <c r="C179" s="1" t="s">
@@ -2838,7 +2860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="13"/>
       <c r="B180" s="17"/>
       <c r="C180" s="1" t="s">
@@ -2846,7 +2868,7 @@
       </c>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="13"/>
       <c r="B181" s="18" t="s">
         <v>4</v>
@@ -2856,7 +2878,7 @@
       </c>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="13"/>
       <c r="B182" s="16"/>
       <c r="C182" s="1" t="s">
@@ -2866,7 +2888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="13"/>
       <c r="B183" s="16"/>
       <c r="C183" s="1" t="s">
@@ -2874,7 +2896,7 @@
       </c>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="13"/>
       <c r="B184" s="17"/>
       <c r="C184" s="1" t="s">
@@ -2884,7 +2906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
       <c r="B185" s="18" t="s">
         <v>5</v>
@@ -2892,31 +2914,31 @@
       <c r="C185" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D185" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="13"/>
       <c r="B186" s="16"/>
       <c r="C186" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D186" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D186" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="13"/>
       <c r="B187" s="16"/>
       <c r="C187" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D187" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
       <c r="B188" s="17"/>
       <c r="C188" s="1" t="s">
@@ -2924,7 +2946,7 @@
       </c>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="13"/>
       <c r="B189" s="18" t="s">
         <v>6</v>
@@ -2936,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
       <c r="B190" s="16"/>
       <c r="C190" s="1" t="s">
@@ -2946,7 +2968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
       <c r="B191" s="16"/>
       <c r="C191" s="1" t="s">
@@ -2956,7 +2978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="19"/>
       <c r="C192" s="5" t="s">
@@ -2964,7 +2986,7 @@
       </c>
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>13</v>
       </c>
@@ -2978,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="13"/>
       <c r="B194" s="16"/>
       <c r="C194" s="1" t="s">
@@ -2988,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="13"/>
       <c r="B195" s="16"/>
       <c r="C195" s="1" t="s">
@@ -2998,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="13"/>
       <c r="B196" s="17"/>
       <c r="C196" s="1" t="s">
@@ -3006,7 +3028,7 @@
       </c>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="13"/>
       <c r="B197" s="18" t="s">
         <v>4</v>
@@ -3016,7 +3038,7 @@
       </c>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="13"/>
       <c r="B198" s="16"/>
       <c r="C198" s="1" t="s">
@@ -3026,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
       <c r="B199" s="16"/>
       <c r="C199" s="1" t="s">
@@ -3036,7 +3058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="13"/>
       <c r="B200" s="17"/>
       <c r="C200" s="1" t="s">
@@ -3046,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
       <c r="B201" s="18" t="s">
         <v>5</v>
@@ -3058,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
       <c r="B202" s="16"/>
       <c r="C202" s="1" t="s">
@@ -3068,17 +3090,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
       <c r="B203" s="16"/>
       <c r="C203" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D203" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D203" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
       <c r="B204" s="17"/>
       <c r="C204" s="1" t="s">
@@ -3086,7 +3108,7 @@
       </c>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
       <c r="B205" s="18" t="s">
         <v>6</v>
@@ -3098,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="13"/>
       <c r="B206" s="16"/>
       <c r="C206" s="1" t="s">
@@ -3108,7 +3130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
       <c r="B207" s="16"/>
       <c r="C207" s="1" t="s">
@@ -3118,7 +3140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
       <c r="B208" s="19"/>
       <c r="C208" s="5" t="s">
@@ -3128,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="12">
         <v>14</v>
       </c>
@@ -3142,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="13"/>
       <c r="B210" s="16"/>
       <c r="C210" s="1" t="s">
@@ -3152,7 +3174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
       <c r="B211" s="16"/>
       <c r="C211" s="1" t="s">
@@ -3162,7 +3184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="13"/>
       <c r="B212" s="17"/>
       <c r="C212" s="1" t="s">
@@ -3170,7 +3192,7 @@
       </c>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="13"/>
       <c r="B213" s="18" t="s">
         <v>4</v>
@@ -3182,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
       <c r="B214" s="16"/>
       <c r="C214" s="1" t="s">
@@ -3192,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
       <c r="B215" s="16"/>
       <c r="C215" s="1" t="s">
@@ -3202,7 +3224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="13"/>
       <c r="B216" s="17"/>
       <c r="C216" s="1" t="s">
@@ -3210,7 +3232,7 @@
       </c>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="13"/>
       <c r="B217" s="18" t="s">
         <v>5</v>
@@ -3222,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="13"/>
       <c r="B218" s="16"/>
       <c r="C218" s="1" t="s">
@@ -3232,17 +3254,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
       <c r="B219" s="16"/>
       <c r="C219" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D219" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="13"/>
       <c r="B220" s="17"/>
       <c r="C220" s="1" t="s">
@@ -3250,7 +3272,7 @@
       </c>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="13"/>
       <c r="B221" s="18" t="s">
         <v>6</v>
@@ -3262,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="13"/>
       <c r="B222" s="16"/>
       <c r="C222" s="1" t="s">
@@ -3272,7 +3294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="13"/>
       <c r="B223" s="16"/>
       <c r="C223" s="1" t="s">
@@ -3282,7 +3304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="14"/>
       <c r="B224" s="19"/>
       <c r="C224" s="5" t="s">
@@ -3290,7 +3312,7 @@
       </c>
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="12">
         <v>15</v>
       </c>
@@ -3304,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="13"/>
       <c r="B226" s="16"/>
       <c r="C226" s="1" t="s">
@@ -3314,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="13"/>
       <c r="B227" s="16"/>
       <c r="C227" s="1" t="s">
@@ -3324,7 +3346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="13"/>
       <c r="B228" s="17"/>
       <c r="C228" s="1" t="s">
@@ -3334,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
       <c r="B229" s="18" t="s">
         <v>4</v>
@@ -3346,7 +3368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="13"/>
       <c r="B230" s="16"/>
       <c r="C230" s="1" t="s">
@@ -3356,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="13"/>
       <c r="B231" s="16"/>
       <c r="C231" s="1" t="s">
@@ -3366,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="13"/>
       <c r="B232" s="17"/>
       <c r="C232" s="1" t="s">
@@ -3374,7 +3396,7 @@
       </c>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="13"/>
       <c r="B233" s="18" t="s">
         <v>5</v>
@@ -3386,27 +3408,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="13"/>
       <c r="B234" s="16"/>
       <c r="C234" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="13"/>
       <c r="B235" s="16"/>
       <c r="C235" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="17"/>
       <c r="C236" s="1" t="s">
@@ -3414,7 +3436,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="13"/>
       <c r="B237" s="18" t="s">
         <v>6</v>
@@ -3426,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="13"/>
       <c r="B238" s="16"/>
       <c r="C238" s="1" t="s">
@@ -3436,7 +3458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="13"/>
       <c r="B239" s="16"/>
       <c r="C239" s="1" t="s">
@@ -3446,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="14"/>
       <c r="B240" s="19"/>
       <c r="C240" s="5" t="s">
@@ -3454,7 +3476,7 @@
       </c>
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12">
         <v>16</v>
       </c>
@@ -3468,7 +3490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="13"/>
       <c r="B242" s="16"/>
       <c r="C242" s="1" t="s">
@@ -3478,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="13"/>
       <c r="B243" s="16"/>
       <c r="C243" s="1" t="s">
@@ -3488,7 +3510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="13"/>
       <c r="B244" s="17"/>
       <c r="C244" s="1" t="s">
@@ -3498,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="13"/>
       <c r="B245" s="18" t="s">
         <v>4</v>
@@ -3510,7 +3532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="13"/>
       <c r="B246" s="16"/>
       <c r="C246" s="1" t="s">
@@ -3520,7 +3542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="13"/>
       <c r="B247" s="16"/>
       <c r="C247" s="1" t="s">
@@ -3530,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="13"/>
       <c r="B248" s="17"/>
       <c r="C248" s="1" t="s">
@@ -3538,7 +3560,7 @@
       </c>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="13"/>
       <c r="B249" s="18" t="s">
         <v>5</v>
@@ -3550,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="13"/>
       <c r="B250" s="16"/>
       <c r="C250" s="1" t="s">
@@ -3560,17 +3582,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="13"/>
       <c r="B251" s="16"/>
       <c r="C251" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D251" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
       <c r="B252" s="17"/>
       <c r="C252" s="1" t="s">
@@ -3580,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="13"/>
       <c r="B253" s="18" t="s">
         <v>6</v>
@@ -3589,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="13"/>
       <c r="B254" s="16"/>
       <c r="C254" s="1" t="s">
@@ -3602,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="13"/>
       <c r="B255" s="16"/>
       <c r="C255" s="1" t="s">
@@ -3612,7 +3634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="14"/>
       <c r="B256" s="19"/>
       <c r="C256" s="5" t="s">
@@ -3620,7 +3642,7 @@
       </c>
       <c r="D256" s="6"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="12">
         <v>17</v>
       </c>
@@ -3634,7 +3656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="13"/>
       <c r="B258" s="16"/>
       <c r="C258" s="1" t="s">
@@ -3644,7 +3666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="13"/>
       <c r="B259" s="16"/>
       <c r="C259" s="1" t="s">
@@ -3654,7 +3676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="13"/>
       <c r="B260" s="17"/>
       <c r="C260" s="1" t="s">
@@ -3664,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="13"/>
       <c r="B261" s="18" t="s">
         <v>4</v>
@@ -3676,7 +3698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="13"/>
       <c r="B262" s="16"/>
       <c r="C262" s="1" t="s">
@@ -3686,7 +3708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="13"/>
       <c r="B263" s="16"/>
       <c r="C263" s="1" t="s">
@@ -3696,7 +3718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="13"/>
       <c r="B264" s="17"/>
       <c r="C264" s="1" t="s">
@@ -3706,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="13"/>
       <c r="B265" s="18" t="s">
         <v>5</v>
@@ -3714,11 +3736,11 @@
       <c r="C265" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D265" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D265" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="13"/>
       <c r="B266" s="16"/>
       <c r="C266" s="1" t="s">
@@ -3728,17 +3750,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="13"/>
       <c r="B267" s="16"/>
       <c r="C267" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D267" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="13"/>
       <c r="B268" s="17"/>
       <c r="C268" s="1" t="s">
@@ -3746,7 +3768,7 @@
       </c>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="13"/>
       <c r="B269" s="18" t="s">
         <v>6</v>
@@ -3755,20 +3777,20 @@
         <v>0</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="13"/>
       <c r="B270" s="16"/>
       <c r="C270" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="13"/>
       <c r="B271" s="16"/>
       <c r="C271" s="1" t="s">
@@ -3778,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="14"/>
       <c r="B272" s="19"/>
       <c r="C272" s="5" t="s">
@@ -3786,7 +3808,7 @@
       </c>
       <c r="D272" s="6"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="12">
         <v>18</v>
       </c>
@@ -3800,7 +3822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="13"/>
       <c r="B274" s="16"/>
       <c r="C274" s="1" t="s">
@@ -3810,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="13"/>
       <c r="B275" s="16"/>
       <c r="C275" s="1" t="s">
@@ -3820,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="13"/>
       <c r="B276" s="17"/>
       <c r="C276" s="1" t="s">
@@ -3828,7 +3850,7 @@
       </c>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="13"/>
       <c r="B277" s="18" t="s">
         <v>4</v>
@@ -3840,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="13"/>
       <c r="B278" s="16"/>
       <c r="C278" s="1" t="s">
@@ -3850,17 +3872,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="13"/>
       <c r="B279" s="16"/>
       <c r="C279" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="13"/>
       <c r="B280" s="17"/>
       <c r="C280" s="1" t="s">
@@ -3870,7 +3892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="13"/>
       <c r="B281" s="18" t="s">
         <v>5</v>
@@ -3878,11 +3900,11 @@
       <c r="C281" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D281" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D281" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="13"/>
       <c r="B282" s="16"/>
       <c r="C282" s="1" t="s">
@@ -3892,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="13"/>
       <c r="B283" s="16"/>
       <c r="C283" s="1" t="s">
@@ -3902,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="13"/>
       <c r="B284" s="17"/>
       <c r="C284" s="1" t="s">
@@ -3910,7 +3932,7 @@
       </c>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="13"/>
       <c r="B285" s="18" t="s">
         <v>6</v>
@@ -3922,7 +3944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="13"/>
       <c r="B286" s="16"/>
       <c r="C286" s="1" t="s">
@@ -3932,7 +3954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="13"/>
       <c r="B287" s="16"/>
       <c r="C287" s="1" t="s">
@@ -3942,7 +3964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="14"/>
       <c r="B288" s="19"/>
       <c r="C288" s="5" t="s">
@@ -3950,7 +3972,7 @@
       </c>
       <c r="D288" s="6"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12">
         <v>19</v>
       </c>
@@ -3964,7 +3986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="13"/>
       <c r="B290" s="16"/>
       <c r="C290" s="1" t="s">
@@ -3974,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="13"/>
       <c r="B291" s="16"/>
       <c r="C291" s="1" t="s">
@@ -3984,7 +4006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="13"/>
       <c r="B292" s="17"/>
       <c r="C292" s="1" t="s">
@@ -3992,7 +4014,7 @@
       </c>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
       <c r="B293" s="18" t="s">
         <v>4</v>
@@ -4001,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="13"/>
       <c r="B294" s="16"/>
       <c r="C294" s="1" t="s">
@@ -4014,17 +4036,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
       <c r="B295" s="16"/>
       <c r="C295" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="13"/>
       <c r="B296" s="17"/>
       <c r="C296" s="1" t="s">
@@ -4032,7 +4054,7 @@
       </c>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="13"/>
       <c r="B297" s="18" t="s">
         <v>5</v>
@@ -4040,11 +4062,11 @@
       <c r="C297" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D297" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D297" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="13"/>
       <c r="B298" s="16"/>
       <c r="C298" s="1" t="s">
@@ -4054,17 +4076,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="13"/>
       <c r="B299" s="16"/>
       <c r="C299" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D299" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D299" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
       <c r="B300" s="17"/>
       <c r="C300" s="1" t="s">
@@ -4072,7 +4094,7 @@
       </c>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="13"/>
       <c r="B301" s="18" t="s">
         <v>6</v>
@@ -4084,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
       <c r="B302" s="16"/>
       <c r="C302" s="1" t="s">
@@ -4094,7 +4116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
       <c r="B303" s="16"/>
       <c r="C303" s="1" t="s">
@@ -4104,7 +4126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="14"/>
       <c r="B304" s="19"/>
       <c r="C304" s="5" t="s">
@@ -4112,7 +4134,7 @@
       </c>
       <c r="D304" s="6"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="12">
         <v>20</v>
       </c>
@@ -4126,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
       <c r="B306" s="16"/>
       <c r="C306" s="1" t="s">
@@ -4136,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="13"/>
       <c r="B307" s="16"/>
       <c r="C307" s="1" t="s">
@@ -4146,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
       <c r="B308" s="17"/>
       <c r="C308" s="1" t="s">
@@ -4154,7 +4176,7 @@
       </c>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
       <c r="B309" s="18" t="s">
         <v>4</v>
@@ -4166,7 +4188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="13"/>
       <c r="B310" s="16"/>
       <c r="C310" s="1" t="s">
@@ -4176,7 +4198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="13"/>
       <c r="B311" s="16"/>
       <c r="C311" s="1" t="s">
@@ -4186,7 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
       <c r="B312" s="17"/>
       <c r="C312" s="1" t="s">
@@ -4194,7 +4216,7 @@
       </c>
       <c r="D312" s="4"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
       <c r="B313" s="18" t="s">
         <v>5</v>
@@ -4202,21 +4224,21 @@
       <c r="C313" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D313" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D313" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
       <c r="B314" s="16"/>
       <c r="C314" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D314" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D314" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
       <c r="B315" s="16"/>
       <c r="C315" s="1" t="s">
@@ -4226,7 +4248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="13"/>
       <c r="B316" s="17"/>
       <c r="C316" s="1" t="s">
@@ -4234,7 +4256,7 @@
       </c>
       <c r="D316" s="4"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
       <c r="B317" s="18" t="s">
         <v>6</v>
@@ -4246,7 +4268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="13"/>
       <c r="B318" s="16"/>
       <c r="C318" s="1" t="s">
@@ -4256,7 +4278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="13"/>
       <c r="B319" s="16"/>
       <c r="C319" s="1" t="s">
@@ -4266,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="14"/>
       <c r="B320" s="19"/>
       <c r="C320" s="5" t="s">
@@ -4276,7 +4298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="12">
         <v>21</v>
       </c>
@@ -4290,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="13"/>
       <c r="B322" s="16"/>
       <c r="C322" s="1" t="s">
@@ -4300,7 +4322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="13"/>
       <c r="B323" s="16"/>
       <c r="C323" s="1" t="s">
@@ -4310,7 +4332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="13"/>
       <c r="B324" s="17"/>
       <c r="C324" s="1" t="s">
@@ -4318,7 +4340,7 @@
       </c>
       <c r="D324" s="4"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="13"/>
       <c r="B325" s="18" t="s">
         <v>4</v>
@@ -4327,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="13"/>
       <c r="B326" s="16"/>
       <c r="C326" s="1" t="s">
@@ -4340,17 +4362,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="13"/>
       <c r="B327" s="16"/>
       <c r="C327" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="13"/>
       <c r="B328" s="17"/>
       <c r="C328" s="1" t="s">
@@ -4358,7 +4380,7 @@
       </c>
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="13"/>
       <c r="B329" s="18" t="s">
         <v>5</v>
@@ -4366,11 +4388,11 @@
       <c r="C329" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D329" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D329" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="13"/>
       <c r="B330" s="16"/>
       <c r="C330" s="1" t="s">
@@ -4380,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="13"/>
       <c r="B331" s="16"/>
       <c r="C331" s="1" t="s">
@@ -4390,7 +4412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="13"/>
       <c r="B332" s="17"/>
       <c r="C332" s="1" t="s">
@@ -4398,7 +4420,7 @@
       </c>
       <c r="D332" s="4"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="13"/>
       <c r="B333" s="18" t="s">
         <v>6</v>
@@ -4410,7 +4432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="13"/>
       <c r="B334" s="16"/>
       <c r="C334" s="1" t="s">
@@ -4420,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="13"/>
       <c r="B335" s="16"/>
       <c r="C335" s="1" t="s">
@@ -4430,7 +4452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="14"/>
       <c r="B336" s="19"/>
       <c r="C336" s="5" t="s">
@@ -4440,7 +4462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="12">
         <v>22</v>
       </c>
@@ -4454,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="13"/>
       <c r="B338" s="16"/>
       <c r="C338" s="1" t="s">
@@ -4464,7 +4486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="13"/>
       <c r="B339" s="16"/>
       <c r="C339" s="1" t="s">
@@ -4474,7 +4496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="13"/>
       <c r="B340" s="17"/>
       <c r="C340" s="1" t="s">
@@ -4484,7 +4506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="13"/>
       <c r="B341" s="18" t="s">
         <v>4</v>
@@ -4496,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="13"/>
       <c r="B342" s="16"/>
       <c r="C342" s="1" t="s">
@@ -4506,7 +4528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="13"/>
       <c r="B343" s="16"/>
       <c r="C343" s="1" t="s">
@@ -4516,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="13"/>
       <c r="B344" s="17"/>
       <c r="C344" s="1" t="s">
@@ -4524,7 +4546,7 @@
       </c>
       <c r="D344" s="4"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="13"/>
       <c r="B345" s="18" t="s">
         <v>5</v>
@@ -4536,27 +4558,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="13"/>
       <c r="B346" s="16"/>
       <c r="C346" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D346" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D346" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="13"/>
       <c r="B347" s="16"/>
       <c r="C347" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D347" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D347" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="13"/>
       <c r="B348" s="17"/>
       <c r="C348" s="1" t="s">
@@ -4564,7 +4586,7 @@
       </c>
       <c r="D348" s="4"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="13"/>
       <c r="B349" s="18" t="s">
         <v>6</v>
@@ -4576,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="13"/>
       <c r="B350" s="16"/>
       <c r="C350" s="1" t="s">
@@ -4586,17 +4608,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="13"/>
       <c r="B351" s="16"/>
       <c r="C351" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="14"/>
       <c r="B352" s="19"/>
       <c r="C352" s="5" t="s">
@@ -4606,7 +4628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="12">
         <v>23</v>
       </c>
@@ -4620,7 +4642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="13"/>
       <c r="B354" s="16"/>
       <c r="C354" s="1" t="s">
@@ -4630,7 +4652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="13"/>
       <c r="B355" s="16"/>
       <c r="C355" s="1" t="s">
@@ -4640,7 +4662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="13"/>
       <c r="B356" s="17"/>
       <c r="C356" s="1" t="s">
@@ -4650,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="13"/>
       <c r="B357" s="18" t="s">
         <v>4</v>
@@ -4662,7 +4684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="13"/>
       <c r="B358" s="16"/>
       <c r="C358" s="1" t="s">
@@ -4672,7 +4694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="13"/>
       <c r="B359" s="16"/>
       <c r="C359" s="1" t="s">
@@ -4682,7 +4704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="13"/>
       <c r="B360" s="17"/>
       <c r="C360" s="1" t="s">
@@ -4692,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="13"/>
       <c r="B361" s="18" t="s">
         <v>5</v>
@@ -4700,11 +4722,11 @@
       <c r="C361" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D361" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D361" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="13"/>
       <c r="B362" s="16"/>
       <c r="C362" s="1" t="s">
@@ -4714,17 +4736,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="13"/>
       <c r="B363" s="16"/>
       <c r="C363" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="13"/>
       <c r="B364" s="17"/>
       <c r="C364" s="1" t="s">
@@ -4732,7 +4754,7 @@
       </c>
       <c r="D364" s="4"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="13"/>
       <c r="B365" s="18" t="s">
         <v>6</v>
@@ -4744,7 +4766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="13"/>
       <c r="B366" s="16"/>
       <c r="C366" s="1" t="s">
@@ -4754,7 +4776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="13"/>
       <c r="B367" s="16"/>
       <c r="C367" s="1" t="s">
@@ -4764,7 +4786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="14"/>
       <c r="B368" s="19"/>
       <c r="C368" s="5" t="s">
@@ -4772,7 +4794,7 @@
       </c>
       <c r="D368" s="6"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="12">
         <v>24</v>
       </c>
@@ -4786,27 +4808,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="13"/>
       <c r="B370" s="16"/>
       <c r="C370" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="13"/>
       <c r="B371" s="16"/>
       <c r="C371" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="13"/>
       <c r="B372" s="17"/>
       <c r="C372" s="1" t="s">
@@ -4814,7 +4836,7 @@
       </c>
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="13"/>
       <c r="B373" s="18" t="s">
         <v>4</v>
@@ -4826,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="13"/>
       <c r="B374" s="16"/>
       <c r="C374" s="1" t="s">
@@ -4836,7 +4858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="13"/>
       <c r="B375" s="16"/>
       <c r="C375" s="1" t="s">
@@ -4846,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="13"/>
       <c r="B376" s="17"/>
       <c r="C376" s="1" t="s">
@@ -4854,7 +4876,7 @@
       </c>
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="13"/>
       <c r="B377" s="18" t="s">
         <v>5</v>
@@ -4866,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="13"/>
       <c r="B378" s="16"/>
       <c r="C378" s="1" t="s">
@@ -4876,7 +4898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="13"/>
       <c r="B379" s="16"/>
       <c r="C379" s="1" t="s">
@@ -4886,7 +4908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="13"/>
       <c r="B380" s="17"/>
       <c r="C380" s="1" t="s">
@@ -4894,7 +4916,7 @@
       </c>
       <c r="D380" s="4"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="13"/>
       <c r="B381" s="18" t="s">
         <v>6</v>
@@ -4906,7 +4928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="13"/>
       <c r="B382" s="16"/>
       <c r="C382" s="1" t="s">
@@ -4916,7 +4938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="13"/>
       <c r="B383" s="16"/>
       <c r="C383" s="1" t="s">
@@ -4926,7 +4948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="14"/>
       <c r="B384" s="19"/>
       <c r="C384" s="5" t="s">
@@ -4934,7 +4956,7 @@
       </c>
       <c r="D384" s="6"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="12">
         <v>25</v>
       </c>
@@ -4948,7 +4970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="13"/>
       <c r="B386" s="16"/>
       <c r="C386" s="1" t="s">
@@ -4958,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="13"/>
       <c r="B387" s="16"/>
       <c r="C387" s="1" t="s">
@@ -4968,7 +4990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="13"/>
       <c r="B388" s="17"/>
       <c r="C388" s="1" t="s">
@@ -4978,7 +5000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="13"/>
       <c r="B389" s="18" t="s">
         <v>4</v>
@@ -4990,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="13"/>
       <c r="B390" s="16"/>
       <c r="C390" s="1" t="s">
@@ -5000,7 +5022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="13"/>
       <c r="B391" s="16"/>
       <c r="C391" s="1" t="s">
@@ -5010,7 +5032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="13"/>
       <c r="B392" s="17"/>
       <c r="C392" s="1" t="s">
@@ -5018,7 +5040,7 @@
       </c>
       <c r="D392" s="4"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="13"/>
       <c r="B393" s="18" t="s">
         <v>5</v>
@@ -5030,7 +5052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="13"/>
       <c r="B394" s="16"/>
       <c r="C394" s="1" t="s">
@@ -5040,17 +5062,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="13"/>
       <c r="B395" s="16"/>
       <c r="C395" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D395" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D395" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="13"/>
       <c r="B396" s="17"/>
       <c r="C396" s="1" t="s">
@@ -5058,7 +5080,7 @@
       </c>
       <c r="D396" s="4"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="13"/>
       <c r="B397" s="18" t="s">
         <v>6</v>
@@ -5070,7 +5092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="13"/>
       <c r="B398" s="16"/>
       <c r="C398" s="1" t="s">
@@ -5080,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="13"/>
       <c r="B399" s="16"/>
       <c r="C399" s="1" t="s">
@@ -5090,7 +5112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="14"/>
       <c r="B400" s="19"/>
       <c r="C400" s="5" t="s">
@@ -5098,7 +5120,7 @@
       </c>
       <c r="D400" s="6"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="12">
         <v>26</v>
       </c>
@@ -5112,7 +5134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="13"/>
       <c r="B402" s="16"/>
       <c r="C402" s="1" t="s">
@@ -5122,7 +5144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="13"/>
       <c r="B403" s="16"/>
       <c r="C403" s="1" t="s">
@@ -5132,7 +5154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="13"/>
       <c r="B404" s="17"/>
       <c r="C404" s="1" t="s">
@@ -5142,7 +5164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="13"/>
       <c r="B405" s="18" t="s">
         <v>4</v>
@@ -5154,7 +5176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="13"/>
       <c r="B406" s="16"/>
       <c r="C406" s="1" t="s">
@@ -5164,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="13"/>
       <c r="B407" s="16"/>
       <c r="C407" s="1" t="s">
@@ -5174,7 +5196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="13"/>
       <c r="B408" s="17"/>
       <c r="C408" s="1" t="s">
@@ -5182,7 +5204,7 @@
       </c>
       <c r="D408" s="4"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="13"/>
       <c r="B409" s="18" t="s">
         <v>5</v>
@@ -5190,21 +5212,21 @@
       <c r="C409" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D409" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D409" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="13"/>
       <c r="B410" s="16"/>
       <c r="C410" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D410" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="13"/>
       <c r="B411" s="16"/>
       <c r="C411" s="1" t="s">
@@ -5214,7 +5236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="13"/>
       <c r="B412" s="17"/>
       <c r="C412" s="1" t="s">
@@ -5222,7 +5244,7 @@
       </c>
       <c r="D412" s="4"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="13"/>
       <c r="B413" s="18" t="s">
         <v>6</v>
@@ -5234,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="13"/>
       <c r="B414" s="16"/>
       <c r="C414" s="1" t="s">
@@ -5244,17 +5266,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="13"/>
       <c r="B415" s="16"/>
       <c r="C415" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="14"/>
       <c r="B416" s="19"/>
       <c r="C416" s="5" t="s">
@@ -5262,7 +5284,7 @@
       </c>
       <c r="D416" s="6"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="12">
         <v>27</v>
       </c>
@@ -5276,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="13"/>
       <c r="B418" s="16"/>
       <c r="C418" s="1" t="s">
@@ -5286,7 +5308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="13"/>
       <c r="B419" s="16"/>
       <c r="C419" s="1" t="s">
@@ -5296,7 +5318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="13"/>
       <c r="B420" s="17"/>
       <c r="C420" s="1" t="s">
@@ -5304,7 +5326,7 @@
       </c>
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="13"/>
       <c r="B421" s="18" t="s">
         <v>4</v>
@@ -5316,7 +5338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="13"/>
       <c r="B422" s="16"/>
       <c r="C422" s="1" t="s">
@@ -5326,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="13"/>
       <c r="B423" s="16"/>
       <c r="C423" s="1" t="s">
@@ -5336,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="13"/>
       <c r="B424" s="17"/>
       <c r="C424" s="1" t="s">
@@ -5344,7 +5366,7 @@
       </c>
       <c r="D424" s="4"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="13"/>
       <c r="B425" s="18" t="s">
         <v>5</v>
@@ -5356,17 +5378,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="13"/>
       <c r="B426" s="16"/>
       <c r="C426" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D426" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D426" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="13"/>
       <c r="B427" s="16"/>
       <c r="C427" s="1" t="s">
@@ -5376,7 +5398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="13"/>
       <c r="B428" s="17"/>
       <c r="C428" s="1" t="s">
@@ -5384,7 +5406,7 @@
       </c>
       <c r="D428" s="4"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="13"/>
       <c r="B429" s="18" t="s">
         <v>6</v>
@@ -5396,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="13"/>
       <c r="B430" s="16"/>
       <c r="C430" s="1" t="s">
@@ -5406,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="13"/>
       <c r="B431" s="16"/>
       <c r="C431" s="1" t="s">
@@ -5416,7 +5438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="14"/>
       <c r="B432" s="19"/>
       <c r="C432" s="5" t="s">
@@ -5424,7 +5446,7 @@
       </c>
       <c r="D432" s="6"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="12">
         <v>28</v>
       </c>
@@ -5438,7 +5460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="13"/>
       <c r="B434" s="16"/>
       <c r="C434" s="1" t="s">
@@ -5448,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="13"/>
       <c r="B435" s="16"/>
       <c r="C435" s="1" t="s">
@@ -5458,7 +5480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="13"/>
       <c r="B436" s="17"/>
       <c r="C436" s="1" t="s">
@@ -5466,7 +5488,7 @@
       </c>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="13"/>
       <c r="B437" s="18" t="s">
         <v>4</v>
@@ -5478,7 +5500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="13"/>
       <c r="B438" s="16"/>
       <c r="C438" s="1" t="s">
@@ -5488,17 +5510,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="13"/>
       <c r="B439" s="16"/>
       <c r="C439" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="13"/>
       <c r="B440" s="17"/>
       <c r="C440" s="1" t="s">
@@ -5506,7 +5528,7 @@
       </c>
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="13"/>
       <c r="B441" s="18" t="s">
         <v>5</v>
@@ -5518,27 +5540,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="13"/>
       <c r="B442" s="16"/>
       <c r="C442" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D442" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D442" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="13"/>
       <c r="B443" s="16"/>
       <c r="C443" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D443" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D443" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="13"/>
       <c r="B444" s="17"/>
       <c r="C444" s="1" t="s">
@@ -5546,7 +5568,7 @@
       </c>
       <c r="D444" s="4"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="13"/>
       <c r="B445" s="18" t="s">
         <v>6</v>
@@ -5558,7 +5580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="13"/>
       <c r="B446" s="16"/>
       <c r="C446" s="1" t="s">
@@ -5568,7 +5590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="13"/>
       <c r="B447" s="16"/>
       <c r="C447" s="1" t="s">
@@ -5578,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="14"/>
       <c r="B448" s="19"/>
       <c r="C448" s="5" t="s">
@@ -5586,7 +5608,7 @@
       </c>
       <c r="D448" s="6"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="12">
         <v>29</v>
       </c>
@@ -5600,7 +5622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="13"/>
       <c r="B450" s="16"/>
       <c r="C450" s="1" t="s">
@@ -5610,7 +5632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="13"/>
       <c r="B451" s="16"/>
       <c r="C451" s="1" t="s">
@@ -5620,7 +5642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="13"/>
       <c r="B452" s="17"/>
       <c r="C452" s="1" t="s">
@@ -5628,7 +5650,7 @@
       </c>
       <c r="D452" s="4"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="13"/>
       <c r="B453" s="18" t="s">
         <v>4</v>
@@ -5640,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="13"/>
       <c r="B454" s="16"/>
       <c r="C454" s="1" t="s">
@@ -5650,7 +5672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="13"/>
       <c r="B455" s="16"/>
       <c r="C455" s="1" t="s">
@@ -5660,7 +5682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="13"/>
       <c r="B456" s="17"/>
       <c r="C456" s="1" t="s">
@@ -5668,7 +5690,7 @@
       </c>
       <c r="D456" s="4"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="13"/>
       <c r="B457" s="18" t="s">
         <v>5</v>
@@ -5676,21 +5698,21 @@
       <c r="C457" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D457" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D457" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="13"/>
       <c r="B458" s="16"/>
       <c r="C458" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D458" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="13"/>
       <c r="B459" s="16"/>
       <c r="C459" s="1" t="s">
@@ -5700,7 +5722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="13"/>
       <c r="B460" s="17"/>
       <c r="C460" s="1" t="s">
@@ -5708,7 +5730,7 @@
       </c>
       <c r="D460" s="4"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="13"/>
       <c r="B461" s="18" t="s">
         <v>6</v>
@@ -5720,7 +5742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="13"/>
       <c r="B462" s="16"/>
       <c r="C462" s="1" t="s">
@@ -5730,17 +5752,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="13"/>
       <c r="B463" s="16"/>
       <c r="C463" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="14"/>
       <c r="B464" s="19"/>
       <c r="C464" s="5" t="s">
@@ -5748,7 +5770,7 @@
       </c>
       <c r="D464" s="6"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="12">
         <v>30</v>
       </c>
@@ -5762,7 +5784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="13"/>
       <c r="B466" s="16"/>
       <c r="C466" s="1" t="s">
@@ -5772,7 +5794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="13"/>
       <c r="B467" s="16"/>
       <c r="C467" s="1" t="s">
@@ -5782,7 +5804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="13"/>
       <c r="B468" s="17"/>
       <c r="C468" s="1" t="s">
@@ -5790,7 +5812,7 @@
       </c>
       <c r="D468" s="4"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="13"/>
       <c r="B469" s="18" t="s">
         <v>4</v>
@@ -5800,7 +5822,7 @@
       </c>
       <c r="D469" s="4"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="13"/>
       <c r="B470" s="16"/>
       <c r="C470" s="1" t="s">
@@ -5810,7 +5832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="13"/>
       <c r="B471" s="16"/>
       <c r="C471" s="1" t="s">
@@ -5820,17 +5842,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="13"/>
       <c r="B472" s="17"/>
       <c r="C472" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="13"/>
       <c r="B473" s="18" t="s">
         <v>5</v>
@@ -5842,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="13"/>
       <c r="B474" s="16"/>
       <c r="C474" s="1" t="s">
@@ -5852,7 +5874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="13"/>
       <c r="B475" s="16"/>
       <c r="C475" s="1" t="s">
@@ -5862,7 +5884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="13"/>
       <c r="B476" s="17"/>
       <c r="C476" s="1" t="s">
@@ -5870,7 +5892,7 @@
       </c>
       <c r="D476" s="4"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="13"/>
       <c r="B477" s="18" t="s">
         <v>6</v>
@@ -5882,7 +5904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="13"/>
       <c r="B478" s="16"/>
       <c r="C478" s="1" t="s">
@@ -5892,7 +5914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="13"/>
       <c r="B479" s="16"/>
       <c r="C479" s="1" t="s">
@@ -5902,7 +5924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="14"/>
       <c r="B480" s="19"/>
       <c r="C480" s="5" t="s">
@@ -5910,7 +5932,7 @@
       </c>
       <c r="D480" s="6"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="12">
         <v>31</v>
       </c>
@@ -5924,7 +5946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="13"/>
       <c r="B482" s="16"/>
       <c r="C482" s="1" t="s">
@@ -5934,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="13"/>
       <c r="B483" s="16"/>
       <c r="C483" s="1" t="s">
@@ -5944,7 +5966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="13"/>
       <c r="B484" s="17"/>
       <c r="C484" s="1" t="s">
@@ -5952,7 +5974,7 @@
       </c>
       <c r="D484" s="4"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="13"/>
       <c r="B485" s="18" t="s">
         <v>4</v>
@@ -5964,7 +5986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="13"/>
       <c r="B486" s="16"/>
       <c r="C486" s="1" t="s">
@@ -5974,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="13"/>
       <c r="B487" s="16"/>
       <c r="C487" s="1" t="s">
@@ -5984,7 +6006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="13"/>
       <c r="B488" s="17"/>
       <c r="C488" s="1" t="s">
@@ -5992,7 +6014,7 @@
       </c>
       <c r="D488" s="4"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="13"/>
       <c r="B489" s="18" t="s">
         <v>5</v>
@@ -6000,31 +6022,31 @@
       <c r="C489" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D489" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D489" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="13"/>
       <c r="B490" s="16"/>
       <c r="C490" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D490" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D490" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="13"/>
       <c r="B491" s="16"/>
       <c r="C491" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="13"/>
       <c r="B492" s="17"/>
       <c r="C492" s="1" t="s">
@@ -6032,7 +6054,7 @@
       </c>
       <c r="D492" s="4"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="13"/>
       <c r="B493" s="18" t="s">
         <v>6</v>
@@ -6044,7 +6066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="13"/>
       <c r="B494" s="16"/>
       <c r="C494" s="1" t="s">
@@ -6054,7 +6076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="13"/>
       <c r="B495" s="16"/>
       <c r="C495" s="1" t="s">
@@ -6064,7 +6086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="14"/>
       <c r="B496" s="19"/>
       <c r="C496" s="5" t="s">
@@ -6074,7 +6096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="12">
         <v>32</v>
       </c>
@@ -6088,7 +6110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="13"/>
       <c r="B498" s="16"/>
       <c r="C498" s="1" t="s">
@@ -6098,7 +6120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="13"/>
       <c r="B499" s="16"/>
       <c r="C499" s="1" t="s">
@@ -6108,7 +6130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="13"/>
       <c r="B500" s="17"/>
       <c r="C500" s="1" t="s">
@@ -6116,7 +6138,7 @@
       </c>
       <c r="D500" s="4"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="13"/>
       <c r="B501" s="18" t="s">
         <v>4</v>
@@ -6128,7 +6150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="13"/>
       <c r="B502" s="16"/>
       <c r="C502" s="1" t="s">
@@ -6138,7 +6160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="13"/>
       <c r="B503" s="16"/>
       <c r="C503" s="1" t="s">
@@ -6148,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="13"/>
       <c r="B504" s="17"/>
       <c r="C504" s="1" t="s">
@@ -6156,7 +6178,7 @@
       </c>
       <c r="D504" s="4"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="13"/>
       <c r="B505" s="18" t="s">
         <v>5</v>
@@ -6168,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="13"/>
       <c r="B506" s="16"/>
       <c r="C506" s="1" t="s">
@@ -6178,7 +6200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="13"/>
       <c r="B507" s="16"/>
       <c r="C507" s="1" t="s">
@@ -6188,7 +6210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="13"/>
       <c r="B508" s="17"/>
       <c r="C508" s="1" t="s">
@@ -6196,7 +6218,7 @@
       </c>
       <c r="D508" s="4"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="13"/>
       <c r="B509" s="18" t="s">
         <v>6</v>
@@ -6208,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="13"/>
       <c r="B510" s="16"/>
       <c r="C510" s="1" t="s">
@@ -6218,7 +6240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="13"/>
       <c r="B511" s="16"/>
       <c r="C511" s="1" t="s">
@@ -6228,7 +6250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" s="14"/>
       <c r="B512" s="19"/>
       <c r="C512" s="5" t="s">
@@ -6236,7 +6258,7 @@
       </c>
       <c r="D512" s="6"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="12">
         <v>33</v>
       </c>
@@ -6250,7 +6272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="13"/>
       <c r="B514" s="16"/>
       <c r="C514" s="1" t="s">
@@ -6260,7 +6282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="13"/>
       <c r="B515" s="16"/>
       <c r="C515" s="1" t="s">
@@ -6270,7 +6292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="13"/>
       <c r="B516" s="17"/>
       <c r="C516" s="1" t="s">
@@ -6278,7 +6300,7 @@
       </c>
       <c r="D516" s="4"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="13"/>
       <c r="B517" s="18" t="s">
         <v>4</v>
@@ -6290,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="13"/>
       <c r="B518" s="16"/>
       <c r="C518" s="1" t="s">
@@ -6300,7 +6322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="13"/>
       <c r="B519" s="16"/>
       <c r="C519" s="1" t="s">
@@ -6310,7 +6332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="13"/>
       <c r="B520" s="17"/>
       <c r="C520" s="1" t="s">
@@ -6318,7 +6340,7 @@
       </c>
       <c r="D520" s="4"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="13"/>
       <c r="B521" s="18" t="s">
         <v>5</v>
@@ -6327,20 +6349,20 @@
         <v>0</v>
       </c>
       <c r="D521" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="13"/>
       <c r="B522" s="16"/>
       <c r="C522" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D522" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="13"/>
       <c r="B523" s="16"/>
       <c r="C523" s="1" t="s">
@@ -6350,7 +6372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="13"/>
       <c r="B524" s="17"/>
       <c r="C524" s="1" t="s">
@@ -6358,7 +6380,7 @@
       </c>
       <c r="D524" s="4"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="13"/>
       <c r="B525" s="18" t="s">
         <v>6</v>
@@ -6370,7 +6392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="13"/>
       <c r="B526" s="16"/>
       <c r="C526" s="1" t="s">
@@ -6380,7 +6402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="13"/>
       <c r="B527" s="16"/>
       <c r="C527" s="1" t="s">
@@ -6390,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="14"/>
       <c r="B528" s="19"/>
       <c r="C528" s="5" t="s">
@@ -6398,7 +6420,7 @@
       </c>
       <c r="D528" s="6"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="12">
         <v>34</v>
       </c>
@@ -6412,7 +6434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="13"/>
       <c r="B530" s="16"/>
       <c r="C530" s="1" t="s">
@@ -6422,7 +6444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="13"/>
       <c r="B531" s="16"/>
       <c r="C531" s="1" t="s">
@@ -6432,7 +6454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="13"/>
       <c r="B532" s="17"/>
       <c r="C532" s="1" t="s">
@@ -6440,7 +6462,7 @@
       </c>
       <c r="D532" s="4"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="13"/>
       <c r="B533" s="18" t="s">
         <v>4</v>
@@ -6452,7 +6474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="13"/>
       <c r="B534" s="16"/>
       <c r="C534" s="1" t="s">
@@ -6462,7 +6484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="13"/>
       <c r="B535" s="16"/>
       <c r="C535" s="1" t="s">
@@ -6472,7 +6494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="13"/>
       <c r="B536" s="17"/>
       <c r="C536" s="1" t="s">
@@ -6482,7 +6504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="13"/>
       <c r="B537" s="18" t="s">
         <v>5</v>
@@ -6491,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="13"/>
       <c r="B538" s="16"/>
       <c r="C538" s="1" t="s">
@@ -6504,7 +6526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="13"/>
       <c r="B539" s="16"/>
       <c r="C539" s="1" t="s">
@@ -6514,7 +6536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="13"/>
       <c r="B540" s="17"/>
       <c r="C540" s="1" t="s">
@@ -6522,7 +6544,7 @@
       </c>
       <c r="D540" s="4"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="13"/>
       <c r="B541" s="18" t="s">
         <v>6</v>
@@ -6531,10 +6553,10 @@
         <v>0</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="13"/>
       <c r="B542" s="16"/>
       <c r="C542" s="1" t="s">
@@ -6544,7 +6566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="13"/>
       <c r="B543" s="16"/>
       <c r="C543" s="1" t="s">
@@ -6554,7 +6576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="14"/>
       <c r="B544" s="19"/>
       <c r="C544" s="5" t="s">
@@ -6562,7 +6584,7 @@
       </c>
       <c r="D544" s="6"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="12">
         <v>35</v>
       </c>
@@ -6576,7 +6598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="13"/>
       <c r="B546" s="16"/>
       <c r="C546" s="1" t="s">
@@ -6586,7 +6608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="13"/>
       <c r="B547" s="16"/>
       <c r="C547" s="1" t="s">
@@ -6596,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="13"/>
       <c r="B548" s="17"/>
       <c r="C548" s="1" t="s">
@@ -6606,7 +6628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="13"/>
       <c r="B549" s="18" t="s">
         <v>4</v>
@@ -6618,7 +6640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="13"/>
       <c r="B550" s="16"/>
       <c r="C550" s="1" t="s">
@@ -6628,7 +6650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="13"/>
       <c r="B551" s="16"/>
       <c r="C551" s="1" t="s">
@@ -6638,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="13"/>
       <c r="B552" s="17"/>
       <c r="C552" s="1" t="s">
@@ -6648,7 +6670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="13"/>
       <c r="B553" s="18" t="s">
         <v>5</v>
@@ -6660,27 +6682,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="13"/>
       <c r="B554" s="16"/>
       <c r="C554" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D554" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D554" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="13"/>
       <c r="B555" s="16"/>
       <c r="C555" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="13"/>
       <c r="B556" s="17"/>
       <c r="C556" s="1" t="s">
@@ -6688,7 +6710,7 @@
       </c>
       <c r="D556" s="4"/>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="13"/>
       <c r="B557" s="18" t="s">
         <v>6</v>
@@ -6697,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="13"/>
       <c r="B558" s="16"/>
       <c r="C558" s="1" t="s">
@@ -6710,7 +6732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="13"/>
       <c r="B559" s="16"/>
       <c r="C559" s="1" t="s">
@@ -6720,7 +6742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="14"/>
       <c r="B560" s="19"/>
       <c r="C560" s="5" t="s">
@@ -6730,7 +6752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="12">
         <v>36</v>
       </c>
@@ -6744,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="13"/>
       <c r="B562" s="16"/>
       <c r="C562" s="1" t="s">
@@ -6754,17 +6776,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="13"/>
       <c r="B563" s="16"/>
       <c r="C563" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="13"/>
       <c r="B564" s="17"/>
       <c r="C564" s="1" t="s">
@@ -6772,7 +6794,7 @@
       </c>
       <c r="D564" s="4"/>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="13"/>
       <c r="B565" s="18" t="s">
         <v>4</v>
@@ -6784,7 +6806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="13"/>
       <c r="B566" s="16"/>
       <c r="C566" s="1" t="s">
@@ -6794,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="13"/>
       <c r="B567" s="16"/>
       <c r="C567" s="1" t="s">
@@ -6804,7 +6826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="13"/>
       <c r="B568" s="17"/>
       <c r="C568" s="1" t="s">
@@ -6814,7 +6836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="13"/>
       <c r="B569" s="18" t="s">
         <v>5</v>
@@ -6823,30 +6845,30 @@
         <v>0</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="13"/>
       <c r="B570" s="16"/>
       <c r="C570" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="13"/>
       <c r="B571" s="16"/>
       <c r="C571" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="13"/>
       <c r="B572" s="17"/>
       <c r="C572" s="1" t="s">
@@ -6854,7 +6876,7 @@
       </c>
       <c r="D572" s="4"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="13"/>
       <c r="B573" s="18" t="s">
         <v>6</v>
@@ -6866,7 +6888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="13"/>
       <c r="B574" s="16"/>
       <c r="C574" s="1" t="s">
@@ -6876,7 +6898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="13"/>
       <c r="B575" s="16"/>
       <c r="C575" s="1" t="s">
@@ -6886,7 +6908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="14"/>
       <c r="B576" s="19"/>
       <c r="C576" s="5" t="s">
@@ -6894,7 +6916,7 @@
       </c>
       <c r="D576" s="6"/>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="12">
         <v>37</v>
       </c>
@@ -6908,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="13"/>
       <c r="B578" s="16"/>
       <c r="C578" s="1" t="s">
@@ -6918,7 +6940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="13"/>
       <c r="B579" s="16"/>
       <c r="C579" s="1" t="s">
@@ -6928,7 +6950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="13"/>
       <c r="B580" s="17"/>
       <c r="C580" s="1" t="s">
@@ -6936,7 +6958,7 @@
       </c>
       <c r="D580" s="4"/>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="13"/>
       <c r="B581" s="18" t="s">
         <v>4</v>
@@ -6948,7 +6970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="13"/>
       <c r="B582" s="16"/>
       <c r="C582" s="1" t="s">
@@ -6958,17 +6980,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="13"/>
       <c r="B583" s="16"/>
       <c r="C583" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="13"/>
       <c r="B584" s="17"/>
       <c r="C584" s="1" t="s">
@@ -6976,7 +6998,7 @@
       </c>
       <c r="D584" s="4"/>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="13"/>
       <c r="B585" s="18" t="s">
         <v>5</v>
@@ -6988,7 +7010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="13"/>
       <c r="B586" s="16"/>
       <c r="C586" s="1" t="s">
@@ -6998,27 +7020,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="13"/>
       <c r="B587" s="16"/>
       <c r="C587" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="13"/>
       <c r="B588" s="17"/>
       <c r="C588" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D588" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D588" s="4"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="13"/>
       <c r="B589" s="18" t="s">
         <v>6</v>
@@ -7030,7 +7050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="13"/>
       <c r="B590" s="16"/>
       <c r="C590" s="1" t="s">
@@ -7040,7 +7060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="13"/>
       <c r="B591" s="16"/>
       <c r="C591" s="1" t="s">
@@ -7050,7 +7070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="14"/>
       <c r="B592" s="19"/>
       <c r="C592" s="5" t="s">
@@ -7058,7 +7078,7 @@
       </c>
       <c r="D592" s="6"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="12">
         <v>38</v>
       </c>
@@ -7072,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="13"/>
       <c r="B594" s="16"/>
       <c r="C594" s="1" t="s">
@@ -7082,7 +7102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="13"/>
       <c r="B595" s="16"/>
       <c r="C595" s="1" t="s">
@@ -7092,7 +7112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="13"/>
       <c r="B596" s="17"/>
       <c r="C596" s="1" t="s">
@@ -7100,7 +7120,7 @@
       </c>
       <c r="D596" s="4"/>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="13"/>
       <c r="B597" s="18" t="s">
         <v>4</v>
@@ -7112,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="13"/>
       <c r="B598" s="16"/>
       <c r="C598" s="1" t="s">
@@ -7122,7 +7142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="13"/>
       <c r="B599" s="16"/>
       <c r="C599" s="1" t="s">
@@ -7132,7 +7152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="13"/>
       <c r="B600" s="17"/>
       <c r="C600" s="1" t="s">
@@ -7142,7 +7162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="13"/>
       <c r="B601" s="18" t="s">
         <v>5</v>
@@ -7154,17 +7174,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="13"/>
       <c r="B602" s="16"/>
       <c r="C602" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D602" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="13"/>
       <c r="B603" s="16"/>
       <c r="C603" s="1" t="s">
@@ -7172,17 +7192,15 @@
       </c>
       <c r="D603" s="4"/>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="13"/>
       <c r="B604" s="17"/>
       <c r="C604" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D604" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D604" s="4"/>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="13"/>
       <c r="B605" s="18" t="s">
         <v>6</v>
@@ -7194,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="13"/>
       <c r="B606" s="16"/>
       <c r="C606" s="1" t="s">
@@ -7204,7 +7222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="13"/>
       <c r="B607" s="16"/>
       <c r="C607" s="1" t="s">
@@ -7214,7 +7232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="608" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="14"/>
       <c r="B608" s="19"/>
       <c r="C608" s="5" t="s">
@@ -7222,7 +7240,7 @@
       </c>
       <c r="D608" s="6"/>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="12">
         <v>39</v>
       </c>
@@ -7236,7 +7254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="13"/>
       <c r="B610" s="16"/>
       <c r="C610" s="1" t="s">
@@ -7246,7 +7264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="13"/>
       <c r="B611" s="16"/>
       <c r="C611" s="1" t="s">
@@ -7256,7 +7274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="13"/>
       <c r="B612" s="17"/>
       <c r="C612" s="1" t="s">
@@ -7264,7 +7282,7 @@
       </c>
       <c r="D612" s="4"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="13"/>
       <c r="B613" s="18" t="s">
         <v>4</v>
@@ -7276,7 +7294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="13"/>
       <c r="B614" s="16"/>
       <c r="C614" s="1" t="s">
@@ -7286,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="13"/>
       <c r="B615" s="16"/>
       <c r="C615" s="1" t="s">
@@ -7296,7 +7314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="13"/>
       <c r="B616" s="17"/>
       <c r="C616" s="1" t="s">
@@ -7304,7 +7322,7 @@
       </c>
       <c r="D616" s="4"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="13"/>
       <c r="B617" s="18" t="s">
         <v>5</v>
@@ -7313,30 +7331,30 @@
         <v>0</v>
       </c>
       <c r="D617" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="13"/>
       <c r="B618" s="16"/>
       <c r="C618" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D618" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="13"/>
       <c r="B619" s="16"/>
       <c r="C619" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D619" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="13"/>
       <c r="B620" s="17"/>
       <c r="C620" s="1" t="s">
@@ -7344,7 +7362,7 @@
       </c>
       <c r="D620" s="4"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="13"/>
       <c r="B621" s="18" t="s">
         <v>6</v>
@@ -7356,7 +7374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="13"/>
       <c r="B622" s="16"/>
       <c r="C622" s="1" t="s">
@@ -7366,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="13"/>
       <c r="B623" s="16"/>
       <c r="C623" s="1" t="s">
@@ -7376,7 +7394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="624" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A624" s="14"/>
       <c r="B624" s="19"/>
       <c r="C624" s="5" t="s">
@@ -7384,7 +7402,7 @@
       </c>
       <c r="D624" s="6"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="12">
         <v>40</v>
       </c>
@@ -7398,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="13"/>
       <c r="B626" s="16"/>
       <c r="C626" s="1" t="s">
@@ -7408,7 +7426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="13"/>
       <c r="B627" s="16"/>
       <c r="C627" s="1" t="s">
@@ -7418,7 +7436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="13"/>
       <c r="B628" s="17"/>
       <c r="C628" s="1" t="s">
@@ -7426,7 +7444,7 @@
       </c>
       <c r="D628" s="4"/>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="13"/>
       <c r="B629" s="18" t="s">
         <v>4</v>
@@ -7438,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="13"/>
       <c r="B630" s="16"/>
       <c r="C630" s="1" t="s">
@@ -7448,17 +7466,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="13"/>
       <c r="B631" s="16"/>
       <c r="C631" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="13"/>
       <c r="B632" s="17"/>
       <c r="C632" s="1" t="s">
@@ -7466,7 +7484,7 @@
       </c>
       <c r="D632" s="4"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="13"/>
       <c r="B633" s="18" t="s">
         <v>5</v>
@@ -7474,21 +7492,21 @@
       <c r="C633" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D633" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D633" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="13"/>
       <c r="B634" s="16"/>
       <c r="C634" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D634" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D634" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="13"/>
       <c r="B635" s="16"/>
       <c r="C635" s="1" t="s">
@@ -7498,7 +7516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="13"/>
       <c r="B636" s="17"/>
       <c r="C636" s="1" t="s">
@@ -7506,7 +7524,7 @@
       </c>
       <c r="D636" s="4"/>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="13"/>
       <c r="B637" s="18" t="s">
         <v>6</v>
@@ -7518,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="13"/>
       <c r="B638" s="16"/>
       <c r="C638" s="1" t="s">
@@ -7528,17 +7546,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="13"/>
       <c r="B639" s="16"/>
       <c r="C639" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="14"/>
       <c r="B640" s="19"/>
       <c r="C640" s="5" t="s">
@@ -7546,7 +7564,7 @@
       </c>
       <c r="D640" s="6"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="12">
         <v>41</v>
       </c>
@@ -7560,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="13"/>
       <c r="B642" s="16"/>
       <c r="C642" s="1" t="s">
@@ -7570,7 +7588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="13"/>
       <c r="B643" s="16"/>
       <c r="C643" s="1" t="s">
@@ -7580,7 +7598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="13"/>
       <c r="B644" s="17"/>
       <c r="C644" s="1" t="s">
@@ -7590,7 +7608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="13"/>
       <c r="B645" s="18" t="s">
         <v>4</v>
@@ -7602,7 +7620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="13"/>
       <c r="B646" s="16"/>
       <c r="C646" s="1" t="s">
@@ -7612,7 +7630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="13"/>
       <c r="B647" s="16"/>
       <c r="C647" s="1" t="s">
@@ -7622,7 +7640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="13"/>
       <c r="B648" s="17"/>
       <c r="C648" s="1" t="s">
@@ -7630,7 +7648,7 @@
       </c>
       <c r="D648" s="4"/>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="13"/>
       <c r="B649" s="18" t="s">
         <v>5</v>
@@ -7642,27 +7660,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="13"/>
       <c r="B650" s="16"/>
       <c r="C650" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D650" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D650" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="13"/>
       <c r="B651" s="16"/>
       <c r="C651" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D651" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D651" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="13"/>
       <c r="B652" s="17"/>
       <c r="C652" s="1" t="s">
@@ -7670,7 +7688,7 @@
       </c>
       <c r="D652" s="4"/>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="13"/>
       <c r="B653" s="18" t="s">
         <v>6</v>
@@ -7682,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="13"/>
       <c r="B654" s="16"/>
       <c r="C654" s="1" t="s">
@@ -7692,7 +7710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="13"/>
       <c r="B655" s="16"/>
       <c r="C655" s="1" t="s">
@@ -7702,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="656" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="14"/>
       <c r="B656" s="19"/>
       <c r="C656" s="5" t="s">
@@ -7710,7 +7728,7 @@
       </c>
       <c r="D656" s="6"/>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="12">
         <v>42</v>
       </c>
@@ -7724,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="13"/>
       <c r="B658" s="16"/>
       <c r="C658" s="1" t="s">
@@ -7734,7 +7752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="13"/>
       <c r="B659" s="16"/>
       <c r="C659" s="1" t="s">
@@ -7744,7 +7762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="13"/>
       <c r="B660" s="17"/>
       <c r="C660" s="1" t="s">
@@ -7752,7 +7770,7 @@
       </c>
       <c r="D660" s="4"/>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="13"/>
       <c r="B661" s="18" t="s">
         <v>4</v>
@@ -7764,7 +7782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="13"/>
       <c r="B662" s="16"/>
       <c r="C662" s="1" t="s">
@@ -7774,7 +7792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="13"/>
       <c r="B663" s="16"/>
       <c r="C663" s="1" t="s">
@@ -7784,7 +7802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="13"/>
       <c r="B664" s="17"/>
       <c r="C664" s="1" t="s">
@@ -7794,7 +7812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="13"/>
       <c r="B665" s="18" t="s">
         <v>5</v>
@@ -7806,27 +7824,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="13"/>
       <c r="B666" s="16"/>
       <c r="C666" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D666" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="13"/>
       <c r="B667" s="16"/>
       <c r="C667" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D667" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="13"/>
       <c r="B668" s="17"/>
       <c r="C668" s="1" t="s">
@@ -7834,7 +7852,7 @@
       </c>
       <c r="D668" s="4"/>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="13"/>
       <c r="B669" s="18" t="s">
         <v>6</v>
@@ -7846,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="13"/>
       <c r="B670" s="16"/>
       <c r="C670" s="1" t="s">
@@ -7856,7 +7874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="13"/>
       <c r="B671" s="16"/>
       <c r="C671" s="1" t="s">
@@ -7866,7 +7884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="672" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="14"/>
       <c r="B672" s="19"/>
       <c r="C672" s="5" t="s">
@@ -7874,7 +7892,7 @@
       </c>
       <c r="D672" s="6"/>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="12">
         <v>43</v>
       </c>
@@ -7888,7 +7906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="13"/>
       <c r="B674" s="16"/>
       <c r="C674" s="1" t="s">
@@ -7898,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="13"/>
       <c r="B675" s="16"/>
       <c r="C675" s="1" t="s">
@@ -7908,7 +7926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="13"/>
       <c r="B676" s="17"/>
       <c r="C676" s="1" t="s">
@@ -7916,7 +7934,7 @@
       </c>
       <c r="D676" s="4"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="13"/>
       <c r="B677" s="18" t="s">
         <v>4</v>
@@ -7928,7 +7946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="13"/>
       <c r="B678" s="16"/>
       <c r="C678" s="1" t="s">
@@ -7938,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="13"/>
       <c r="B679" s="16"/>
       <c r="C679" s="1" t="s">
@@ -7948,7 +7966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="13"/>
       <c r="B680" s="17"/>
       <c r="C680" s="1" t="s">
@@ -7958,7 +7976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="13"/>
       <c r="B681" s="18" t="s">
         <v>5</v>
@@ -7966,11 +7984,11 @@
       <c r="C681" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D681" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D681" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="13"/>
       <c r="B682" s="16"/>
       <c r="C682" s="1" t="s">
@@ -7980,17 +7998,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="13"/>
       <c r="B683" s="16"/>
       <c r="C683" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D683" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="13"/>
       <c r="B684" s="17"/>
       <c r="C684" s="1" t="s">
@@ -7998,7 +8016,7 @@
       </c>
       <c r="D684" s="4"/>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="13"/>
       <c r="B685" s="18" t="s">
         <v>6</v>
@@ -8010,17 +8028,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="13"/>
       <c r="B686" s="16"/>
       <c r="C686" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="13"/>
       <c r="B687" s="16"/>
       <c r="C687" s="1" t="s">
@@ -8030,7 +8048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="688" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A688" s="14"/>
       <c r="B688" s="19"/>
       <c r="C688" s="5" t="s">
@@ -8038,7 +8056,7 @@
       </c>
       <c r="D688" s="6"/>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="12">
         <v>44</v>
       </c>
@@ -8052,7 +8070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="13"/>
       <c r="B690" s="16"/>
       <c r="C690" s="1" t="s">
@@ -8062,7 +8080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="13"/>
       <c r="B691" s="16"/>
       <c r="C691" s="1" t="s">
@@ -8072,7 +8090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="13"/>
       <c r="B692" s="17"/>
       <c r="C692" s="1" t="s">
@@ -8080,7 +8098,7 @@
       </c>
       <c r="D692" s="4"/>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="13"/>
       <c r="B693" s="18" t="s">
         <v>4</v>
@@ -8092,7 +8110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="13"/>
       <c r="B694" s="16"/>
       <c r="C694" s="1" t="s">
@@ -8102,7 +8120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="13"/>
       <c r="B695" s="16"/>
       <c r="C695" s="1" t="s">
@@ -8112,7 +8130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="13"/>
       <c r="B696" s="17"/>
       <c r="C696" s="1" t="s">
@@ -8120,7 +8138,7 @@
       </c>
       <c r="D696" s="4"/>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="13"/>
       <c r="B697" s="18" t="s">
         <v>5</v>
@@ -8129,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="D697" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="13"/>
       <c r="B698" s="16"/>
       <c r="C698" s="1" t="s">
@@ -8142,17 +8160,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="13"/>
       <c r="B699" s="16"/>
       <c r="C699" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D699" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="13"/>
       <c r="B700" s="17"/>
       <c r="C700" s="1" t="s">
@@ -8160,7 +8178,7 @@
       </c>
       <c r="D700" s="4"/>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="13"/>
       <c r="B701" s="18" t="s">
         <v>6</v>
@@ -8172,7 +8190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="13"/>
       <c r="B702" s="16"/>
       <c r="C702" s="1" t="s">
@@ -8182,7 +8200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="13"/>
       <c r="B703" s="16"/>
       <c r="C703" s="1" t="s">
@@ -8192,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="704" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A704" s="14"/>
       <c r="B704" s="19"/>
       <c r="C704" s="5" t="s">
@@ -8200,7 +8218,7 @@
       </c>
       <c r="D704" s="6"/>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="12">
         <v>45</v>
       </c>
@@ -8214,7 +8232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="13"/>
       <c r="B706" s="16"/>
       <c r="C706" s="1" t="s">
@@ -8224,7 +8242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="13"/>
       <c r="B707" s="16"/>
       <c r="C707" s="1" t="s">
@@ -8234,7 +8252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="13"/>
       <c r="B708" s="17"/>
       <c r="C708" s="1" t="s">
@@ -8244,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="13"/>
       <c r="B709" s="18" t="s">
         <v>4</v>
@@ -8256,7 +8274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="13"/>
       <c r="B710" s="16"/>
       <c r="C710" s="1" t="s">
@@ -8266,7 +8284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="13"/>
       <c r="B711" s="16"/>
       <c r="C711" s="1" t="s">
@@ -8276,7 +8294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="13"/>
       <c r="B712" s="17"/>
       <c r="C712" s="1" t="s">
@@ -8284,7 +8302,7 @@
       </c>
       <c r="D712" s="4"/>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="13"/>
       <c r="B713" s="18" t="s">
         <v>5</v>
@@ -8293,40 +8311,38 @@
         <v>0</v>
       </c>
       <c r="D713" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="13"/>
       <c r="B714" s="16"/>
       <c r="C714" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="13"/>
       <c r="B715" s="16"/>
       <c r="C715" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D715" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="13"/>
       <c r="B716" s="17"/>
       <c r="C716" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D716" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D716" s="4"/>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="13"/>
       <c r="B717" s="18" t="s">
         <v>6</v>
@@ -8338,17 +8354,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="13"/>
       <c r="B718" s="16"/>
       <c r="C718" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="13"/>
       <c r="B719" s="16"/>
       <c r="C719" s="1" t="s">
@@ -8358,7 +8374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="720" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A720" s="14"/>
       <c r="B720" s="19"/>
       <c r="C720" s="5" t="s">
@@ -8366,7 +8382,7 @@
       </c>
       <c r="D720" s="6"/>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="12">
         <v>46</v>
       </c>
@@ -8377,10 +8393,10 @@
         <v>0</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="13"/>
       <c r="B722" s="16"/>
       <c r="C722" s="1" t="s">
@@ -8390,7 +8406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="13"/>
       <c r="B723" s="16"/>
       <c r="C723" s="1" t="s">
@@ -8400,7 +8416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="13"/>
       <c r="B724" s="17"/>
       <c r="C724" s="1" t="s">
@@ -8410,7 +8426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="13"/>
       <c r="B725" s="18" t="s">
         <v>4</v>
@@ -8422,7 +8438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="13"/>
       <c r="B726" s="16"/>
       <c r="C726" s="1" t="s">
@@ -8432,7 +8448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="13"/>
       <c r="B727" s="16"/>
       <c r="C727" s="1" t="s">
@@ -8442,7 +8458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="13"/>
       <c r="B728" s="17"/>
       <c r="C728" s="1" t="s">
@@ -8450,7 +8466,7 @@
       </c>
       <c r="D728" s="4"/>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="13"/>
       <c r="B729" s="18" t="s">
         <v>5</v>
@@ -8462,17 +8478,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="13"/>
       <c r="B730" s="16"/>
       <c r="C730" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D730" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="13"/>
       <c r="B731" s="16"/>
       <c r="C731" s="1" t="s">
@@ -8482,7 +8498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="13"/>
       <c r="B732" s="17"/>
       <c r="C732" s="1" t="s">
@@ -8490,7 +8506,7 @@
       </c>
       <c r="D732" s="4"/>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="13"/>
       <c r="B733" s="18" t="s">
         <v>6</v>
@@ -8502,7 +8518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="13"/>
       <c r="B734" s="16"/>
       <c r="C734" s="1" t="s">
@@ -8512,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="13"/>
       <c r="B735" s="16"/>
       <c r="C735" s="1" t="s">
@@ -8522,7 +8538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="736" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A736" s="14"/>
       <c r="B736" s="19"/>
       <c r="C736" s="5" t="s">
@@ -8530,7 +8546,7 @@
       </c>
       <c r="D736" s="6"/>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="12">
         <v>47</v>
       </c>
@@ -8544,7 +8560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="13"/>
       <c r="B738" s="16"/>
       <c r="C738" s="1" t="s">
@@ -8554,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="13"/>
       <c r="B739" s="16"/>
       <c r="C739" s="1" t="s">
@@ -8564,7 +8580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="13"/>
       <c r="B740" s="17"/>
       <c r="C740" s="1" t="s">
@@ -8572,7 +8588,7 @@
       </c>
       <c r="D740" s="4"/>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="13"/>
       <c r="B741" s="18" t="s">
         <v>4</v>
@@ -8581,10 +8597,10 @@
         <v>0</v>
       </c>
       <c r="D741" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="13"/>
       <c r="B742" s="16"/>
       <c r="C742" s="1" t="s">
@@ -8594,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="13"/>
       <c r="B743" s="16"/>
       <c r="C743" s="1" t="s">
@@ -8604,7 +8620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="13"/>
       <c r="B744" s="17"/>
       <c r="C744" s="1" t="s">
@@ -8612,7 +8628,7 @@
       </c>
       <c r="D744" s="4"/>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="13"/>
       <c r="B745" s="18" t="s">
         <v>5</v>
@@ -8620,11 +8636,11 @@
       <c r="C745" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D745" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D745" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="13"/>
       <c r="B746" s="16"/>
       <c r="C746" s="1" t="s">
@@ -8634,17 +8650,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="13"/>
       <c r="B747" s="16"/>
       <c r="C747" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D747" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D747" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="13"/>
       <c r="B748" s="17"/>
       <c r="C748" s="1" t="s">
@@ -8652,7 +8668,7 @@
       </c>
       <c r="D748" s="4"/>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="13"/>
       <c r="B749" s="18" t="s">
         <v>6</v>
@@ -8664,7 +8680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="13"/>
       <c r="B750" s="16"/>
       <c r="C750" s="1" t="s">
@@ -8674,17 +8690,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="13"/>
       <c r="B751" s="16"/>
       <c r="C751" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D751" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="752" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A752" s="14"/>
       <c r="B752" s="19"/>
       <c r="C752" s="5" t="s">
@@ -8692,7 +8708,7 @@
       </c>
       <c r="D752" s="6"/>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="12">
         <v>48</v>
       </c>
@@ -8706,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="13"/>
       <c r="B754" s="16"/>
       <c r="C754" s="1" t="s">
@@ -8716,7 +8732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="13"/>
       <c r="B755" s="16"/>
       <c r="C755" s="1" t="s">
@@ -8726,7 +8742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="13"/>
       <c r="B756" s="17"/>
       <c r="C756" s="1" t="s">
@@ -8734,7 +8750,7 @@
       </c>
       <c r="D756" s="4"/>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="13"/>
       <c r="B757" s="18" t="s">
         <v>4</v>
@@ -8746,7 +8762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="13"/>
       <c r="B758" s="16"/>
       <c r="C758" s="1" t="s">
@@ -8756,7 +8772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="13"/>
       <c r="B759" s="16"/>
       <c r="C759" s="1" t="s">
@@ -8766,7 +8782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="13"/>
       <c r="B760" s="17"/>
       <c r="C760" s="1" t="s">
@@ -8774,7 +8790,7 @@
       </c>
       <c r="D760" s="4"/>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="13"/>
       <c r="B761" s="18" t="s">
         <v>5</v>
@@ -8782,11 +8798,11 @@
       <c r="C761" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D761" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D761" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="13"/>
       <c r="B762" s="16"/>
       <c r="C762" s="1" t="s">
@@ -8796,17 +8812,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="13"/>
       <c r="B763" s="16"/>
       <c r="C763" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D763" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="13"/>
       <c r="B764" s="17"/>
       <c r="C764" s="1" t="s">
@@ -8814,7 +8830,7 @@
       </c>
       <c r="D764" s="4"/>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="13"/>
       <c r="B765" s="18" t="s">
         <v>6</v>
@@ -8826,7 +8842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="13"/>
       <c r="B766" s="16"/>
       <c r="C766" s="1" t="s">
@@ -8836,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="13"/>
       <c r="B767" s="16"/>
       <c r="C767" s="1" t="s">
@@ -8846,7 +8862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="768" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A768" s="14"/>
       <c r="B768" s="19"/>
       <c r="C768" s="5" t="s">
@@ -8854,7 +8870,7 @@
       </c>
       <c r="D768" s="6"/>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="12">
         <v>49</v>
       </c>
@@ -8868,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="13"/>
       <c r="B770" s="16"/>
       <c r="C770" s="1" t="s">
@@ -8878,7 +8894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="13"/>
       <c r="B771" s="16"/>
       <c r="C771" s="1" t="s">
@@ -8888,7 +8904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="13"/>
       <c r="B772" s="17"/>
       <c r="C772" s="1" t="s">
@@ -8896,7 +8912,7 @@
       </c>
       <c r="D772" s="4"/>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="13"/>
       <c r="B773" s="18" t="s">
         <v>4</v>
@@ -8908,7 +8924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="13"/>
       <c r="B774" s="16"/>
       <c r="C774" s="1" t="s">
@@ -8918,7 +8934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="13"/>
       <c r="B775" s="16"/>
       <c r="C775" s="1" t="s">
@@ -8928,7 +8944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="13"/>
       <c r="B776" s="17"/>
       <c r="C776" s="1" t="s">
@@ -8938,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="13"/>
       <c r="B777" s="18" t="s">
         <v>5</v>
@@ -8950,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="13"/>
       <c r="B778" s="16"/>
       <c r="C778" s="1" t="s">
@@ -8960,7 +8976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="13"/>
       <c r="B779" s="16"/>
       <c r="C779" s="1" t="s">
@@ -8970,7 +8986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="13"/>
       <c r="B780" s="17"/>
       <c r="C780" s="1" t="s">
@@ -8980,7 +8996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="13"/>
       <c r="B781" s="18" t="s">
         <v>6</v>
@@ -8992,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="13"/>
       <c r="B782" s="16"/>
       <c r="C782" s="1" t="s">
@@ -9002,7 +9018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="13"/>
       <c r="B783" s="16"/>
       <c r="C783" s="1" t="s">
@@ -9012,7 +9028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="784" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A784" s="14"/>
       <c r="B784" s="19"/>
       <c r="C784" s="5" t="s">
@@ -9020,7 +9036,7 @@
       </c>
       <c r="D784" s="6"/>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="12">
         <v>50</v>
       </c>
@@ -9034,7 +9050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="13"/>
       <c r="B786" s="16"/>
       <c r="C786" s="1" t="s">
@@ -9044,7 +9060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="13"/>
       <c r="B787" s="16"/>
       <c r="C787" s="1" t="s">
@@ -9054,7 +9070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="13"/>
       <c r="B788" s="17"/>
       <c r="C788" s="1" t="s">
@@ -9062,7 +9078,7 @@
       </c>
       <c r="D788" s="4"/>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="13"/>
       <c r="B789" s="18" t="s">
         <v>4</v>
@@ -9074,7 +9090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="13"/>
       <c r="B790" s="16"/>
       <c r="C790" s="1" t="s">
@@ -9084,7 +9100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="13"/>
       <c r="B791" s="16"/>
       <c r="C791" s="1" t="s">
@@ -9094,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="13"/>
       <c r="B792" s="17"/>
       <c r="C792" s="1" t="s">
@@ -9102,7 +9118,7 @@
       </c>
       <c r="D792" s="4"/>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="13"/>
       <c r="B793" s="18" t="s">
         <v>5</v>
@@ -9114,7 +9130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="13"/>
       <c r="B794" s="16"/>
       <c r="C794" s="1" t="s">
@@ -9124,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="13"/>
       <c r="B795" s="16"/>
       <c r="C795" s="1" t="s">
@@ -9134,7 +9150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="13"/>
       <c r="B796" s="17"/>
       <c r="C796" s="1" t="s">
@@ -9142,7 +9158,7 @@
       </c>
       <c r="D796" s="4"/>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="13"/>
       <c r="B797" s="18" t="s">
         <v>6</v>
@@ -9154,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="13"/>
       <c r="B798" s="16"/>
       <c r="C798" s="1" t="s">
@@ -9164,7 +9180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="13"/>
       <c r="B799" s="16"/>
       <c r="C799" s="1" t="s">
@@ -9174,7 +9190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="800" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A800" s="14"/>
       <c r="B800" s="19"/>
       <c r="C800" s="5" t="s">
@@ -9184,6 +9200,237 @@
     </row>
   </sheetData>
   <mergeCells count="246">
+    <mergeCell ref="A769:A784"/>
+    <mergeCell ref="B769:B772"/>
+    <mergeCell ref="B773:B776"/>
+    <mergeCell ref="B777:B780"/>
+    <mergeCell ref="B781:B784"/>
+    <mergeCell ref="A785:A800"/>
+    <mergeCell ref="B785:B788"/>
+    <mergeCell ref="B789:B792"/>
+    <mergeCell ref="B793:B796"/>
+    <mergeCell ref="B797:B800"/>
+    <mergeCell ref="A737:A752"/>
+    <mergeCell ref="B737:B740"/>
+    <mergeCell ref="B741:B744"/>
+    <mergeCell ref="B745:B748"/>
+    <mergeCell ref="B749:B752"/>
+    <mergeCell ref="A753:A768"/>
+    <mergeCell ref="B753:B756"/>
+    <mergeCell ref="B757:B760"/>
+    <mergeCell ref="B761:B764"/>
+    <mergeCell ref="B765:B768"/>
+    <mergeCell ref="A705:A720"/>
+    <mergeCell ref="B705:B708"/>
+    <mergeCell ref="B709:B712"/>
+    <mergeCell ref="B713:B716"/>
+    <mergeCell ref="B717:B720"/>
+    <mergeCell ref="A721:A736"/>
+    <mergeCell ref="B721:B724"/>
+    <mergeCell ref="B725:B728"/>
+    <mergeCell ref="B729:B732"/>
+    <mergeCell ref="B733:B736"/>
+    <mergeCell ref="A673:A688"/>
+    <mergeCell ref="B673:B676"/>
+    <mergeCell ref="B677:B680"/>
+    <mergeCell ref="B681:B684"/>
+    <mergeCell ref="B685:B688"/>
+    <mergeCell ref="A689:A704"/>
+    <mergeCell ref="B689:B692"/>
+    <mergeCell ref="B693:B696"/>
+    <mergeCell ref="B697:B700"/>
+    <mergeCell ref="B701:B704"/>
+    <mergeCell ref="A641:A656"/>
+    <mergeCell ref="B641:B644"/>
+    <mergeCell ref="B645:B648"/>
+    <mergeCell ref="B649:B652"/>
+    <mergeCell ref="B653:B656"/>
+    <mergeCell ref="A657:A672"/>
+    <mergeCell ref="B657:B660"/>
+    <mergeCell ref="B661:B664"/>
+    <mergeCell ref="B665:B668"/>
+    <mergeCell ref="B669:B672"/>
+    <mergeCell ref="A609:A624"/>
+    <mergeCell ref="B609:B612"/>
+    <mergeCell ref="B613:B616"/>
+    <mergeCell ref="B617:B620"/>
+    <mergeCell ref="B621:B624"/>
+    <mergeCell ref="A625:A640"/>
+    <mergeCell ref="B625:B628"/>
+    <mergeCell ref="B629:B632"/>
+    <mergeCell ref="B633:B636"/>
+    <mergeCell ref="B637:B640"/>
+    <mergeCell ref="A577:A592"/>
+    <mergeCell ref="B577:B580"/>
+    <mergeCell ref="B581:B584"/>
+    <mergeCell ref="B585:B588"/>
+    <mergeCell ref="B589:B592"/>
+    <mergeCell ref="A593:A608"/>
+    <mergeCell ref="B593:B596"/>
+    <mergeCell ref="B597:B600"/>
+    <mergeCell ref="B601:B604"/>
+    <mergeCell ref="B605:B608"/>
+    <mergeCell ref="A545:A560"/>
+    <mergeCell ref="B545:B548"/>
+    <mergeCell ref="B549:B552"/>
+    <mergeCell ref="B553:B556"/>
+    <mergeCell ref="B557:B560"/>
+    <mergeCell ref="A561:A576"/>
+    <mergeCell ref="B561:B564"/>
+    <mergeCell ref="B565:B568"/>
+    <mergeCell ref="B569:B572"/>
+    <mergeCell ref="B573:B576"/>
+    <mergeCell ref="A513:A528"/>
+    <mergeCell ref="B513:B516"/>
+    <mergeCell ref="B517:B520"/>
+    <mergeCell ref="B521:B524"/>
+    <mergeCell ref="B525:B528"/>
+    <mergeCell ref="A529:A544"/>
+    <mergeCell ref="B529:B532"/>
+    <mergeCell ref="B533:B536"/>
+    <mergeCell ref="B537:B540"/>
+    <mergeCell ref="B541:B544"/>
+    <mergeCell ref="A481:A496"/>
+    <mergeCell ref="B481:B484"/>
+    <mergeCell ref="B485:B488"/>
+    <mergeCell ref="B489:B492"/>
+    <mergeCell ref="B493:B496"/>
+    <mergeCell ref="A497:A512"/>
+    <mergeCell ref="B497:B500"/>
+    <mergeCell ref="B501:B504"/>
+    <mergeCell ref="B505:B508"/>
+    <mergeCell ref="B509:B512"/>
+    <mergeCell ref="A449:A464"/>
+    <mergeCell ref="B449:B452"/>
+    <mergeCell ref="B453:B456"/>
+    <mergeCell ref="B457:B460"/>
+    <mergeCell ref="B461:B464"/>
+    <mergeCell ref="A465:A480"/>
+    <mergeCell ref="B465:B468"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="B473:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="A417:A432"/>
+    <mergeCell ref="B417:B420"/>
+    <mergeCell ref="B421:B424"/>
+    <mergeCell ref="B425:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="A433:A448"/>
+    <mergeCell ref="B433:B436"/>
+    <mergeCell ref="B437:B440"/>
+    <mergeCell ref="B441:B444"/>
+    <mergeCell ref="B445:B448"/>
+    <mergeCell ref="A385:A400"/>
+    <mergeCell ref="B385:B388"/>
+    <mergeCell ref="B389:B392"/>
+    <mergeCell ref="B393:B396"/>
+    <mergeCell ref="B397:B400"/>
+    <mergeCell ref="A401:A416"/>
+    <mergeCell ref="B401:B404"/>
+    <mergeCell ref="B405:B408"/>
+    <mergeCell ref="B409:B412"/>
+    <mergeCell ref="B413:B416"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A81:A96"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A97:A112"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A129:A144"/>
+    <mergeCell ref="A145:A160"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A177:A192"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A193:A208"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A209:A224"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A240"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A241:A256"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="A257:A272"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="B261:B264"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="B269:B272"/>
+    <mergeCell ref="A273:A288"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="A289:A304"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="B293:B296"/>
+    <mergeCell ref="B297:B300"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="A305:A320"/>
+    <mergeCell ref="B305:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="A321:A336"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B336"/>
     <mergeCell ref="A369:A384"/>
     <mergeCell ref="B369:B372"/>
     <mergeCell ref="B373:B376"/>
@@ -9199,237 +9446,6 @@
     <mergeCell ref="B357:B360"/>
     <mergeCell ref="B361:B364"/>
     <mergeCell ref="B365:B368"/>
-    <mergeCell ref="A305:A320"/>
-    <mergeCell ref="B305:B308"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="B317:B320"/>
-    <mergeCell ref="A321:A336"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="A273:A288"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B280"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="A289:A304"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="B293:B296"/>
-    <mergeCell ref="B297:B300"/>
-    <mergeCell ref="B301:B304"/>
-    <mergeCell ref="A241:A256"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="A257:A272"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="B261:B264"/>
-    <mergeCell ref="B265:B268"/>
-    <mergeCell ref="B269:B272"/>
-    <mergeCell ref="A209:A224"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A240"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="A177:A192"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="A193:A208"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A129:A144"/>
-    <mergeCell ref="A145:A160"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A97:A112"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A81:A96"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A385:A400"/>
-    <mergeCell ref="B385:B388"/>
-    <mergeCell ref="B389:B392"/>
-    <mergeCell ref="B393:B396"/>
-    <mergeCell ref="B397:B400"/>
-    <mergeCell ref="A401:A416"/>
-    <mergeCell ref="B401:B404"/>
-    <mergeCell ref="B405:B408"/>
-    <mergeCell ref="B409:B412"/>
-    <mergeCell ref="B413:B416"/>
-    <mergeCell ref="A417:A432"/>
-    <mergeCell ref="B417:B420"/>
-    <mergeCell ref="B421:B424"/>
-    <mergeCell ref="B425:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="A433:A448"/>
-    <mergeCell ref="B433:B436"/>
-    <mergeCell ref="B437:B440"/>
-    <mergeCell ref="B441:B444"/>
-    <mergeCell ref="B445:B448"/>
-    <mergeCell ref="A449:A464"/>
-    <mergeCell ref="B449:B452"/>
-    <mergeCell ref="B453:B456"/>
-    <mergeCell ref="B457:B460"/>
-    <mergeCell ref="B461:B464"/>
-    <mergeCell ref="A465:A480"/>
-    <mergeCell ref="B465:B468"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="B473:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="A481:A496"/>
-    <mergeCell ref="B481:B484"/>
-    <mergeCell ref="B485:B488"/>
-    <mergeCell ref="B489:B492"/>
-    <mergeCell ref="B493:B496"/>
-    <mergeCell ref="A497:A512"/>
-    <mergeCell ref="B497:B500"/>
-    <mergeCell ref="B501:B504"/>
-    <mergeCell ref="B505:B508"/>
-    <mergeCell ref="B509:B512"/>
-    <mergeCell ref="A513:A528"/>
-    <mergeCell ref="B513:B516"/>
-    <mergeCell ref="B517:B520"/>
-    <mergeCell ref="B521:B524"/>
-    <mergeCell ref="B525:B528"/>
-    <mergeCell ref="A529:A544"/>
-    <mergeCell ref="B529:B532"/>
-    <mergeCell ref="B533:B536"/>
-    <mergeCell ref="B537:B540"/>
-    <mergeCell ref="B541:B544"/>
-    <mergeCell ref="A545:A560"/>
-    <mergeCell ref="B545:B548"/>
-    <mergeCell ref="B549:B552"/>
-    <mergeCell ref="B553:B556"/>
-    <mergeCell ref="B557:B560"/>
-    <mergeCell ref="A561:A576"/>
-    <mergeCell ref="B561:B564"/>
-    <mergeCell ref="B565:B568"/>
-    <mergeCell ref="B569:B572"/>
-    <mergeCell ref="B573:B576"/>
-    <mergeCell ref="A577:A592"/>
-    <mergeCell ref="B577:B580"/>
-    <mergeCell ref="B581:B584"/>
-    <mergeCell ref="B585:B588"/>
-    <mergeCell ref="B589:B592"/>
-    <mergeCell ref="A593:A608"/>
-    <mergeCell ref="B593:B596"/>
-    <mergeCell ref="B597:B600"/>
-    <mergeCell ref="B601:B604"/>
-    <mergeCell ref="B605:B608"/>
-    <mergeCell ref="A609:A624"/>
-    <mergeCell ref="B609:B612"/>
-    <mergeCell ref="B613:B616"/>
-    <mergeCell ref="B617:B620"/>
-    <mergeCell ref="B621:B624"/>
-    <mergeCell ref="A625:A640"/>
-    <mergeCell ref="B625:B628"/>
-    <mergeCell ref="B629:B632"/>
-    <mergeCell ref="B633:B636"/>
-    <mergeCell ref="B637:B640"/>
-    <mergeCell ref="A641:A656"/>
-    <mergeCell ref="B641:B644"/>
-    <mergeCell ref="B645:B648"/>
-    <mergeCell ref="B649:B652"/>
-    <mergeCell ref="B653:B656"/>
-    <mergeCell ref="A657:A672"/>
-    <mergeCell ref="B657:B660"/>
-    <mergeCell ref="B661:B664"/>
-    <mergeCell ref="B665:B668"/>
-    <mergeCell ref="B669:B672"/>
-    <mergeCell ref="A673:A688"/>
-    <mergeCell ref="B673:B676"/>
-    <mergeCell ref="B677:B680"/>
-    <mergeCell ref="B681:B684"/>
-    <mergeCell ref="B685:B688"/>
-    <mergeCell ref="A689:A704"/>
-    <mergeCell ref="B689:B692"/>
-    <mergeCell ref="B693:B696"/>
-    <mergeCell ref="B697:B700"/>
-    <mergeCell ref="B701:B704"/>
-    <mergeCell ref="A705:A720"/>
-    <mergeCell ref="B705:B708"/>
-    <mergeCell ref="B709:B712"/>
-    <mergeCell ref="B713:B716"/>
-    <mergeCell ref="B717:B720"/>
-    <mergeCell ref="A721:A736"/>
-    <mergeCell ref="B721:B724"/>
-    <mergeCell ref="B725:B728"/>
-    <mergeCell ref="B729:B732"/>
-    <mergeCell ref="B733:B736"/>
-    <mergeCell ref="A737:A752"/>
-    <mergeCell ref="B737:B740"/>
-    <mergeCell ref="B741:B744"/>
-    <mergeCell ref="B745:B748"/>
-    <mergeCell ref="B749:B752"/>
-    <mergeCell ref="A753:A768"/>
-    <mergeCell ref="B753:B756"/>
-    <mergeCell ref="B757:B760"/>
-    <mergeCell ref="B761:B764"/>
-    <mergeCell ref="B765:B768"/>
-    <mergeCell ref="A769:A784"/>
-    <mergeCell ref="B769:B772"/>
-    <mergeCell ref="B773:B776"/>
-    <mergeCell ref="B777:B780"/>
-    <mergeCell ref="B781:B784"/>
-    <mergeCell ref="A785:A800"/>
-    <mergeCell ref="B785:B788"/>
-    <mergeCell ref="B789:B792"/>
-    <mergeCell ref="B793:B796"/>
-    <mergeCell ref="B797:B800"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
